--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_7_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_7_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-762910.5176530665</v>
+        <v>-763609.9277602579</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1868545.583905886</v>
+        <v>1868545.583905884</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.029273655</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>61.03556016000587</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>61.03556016000545</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.21910266041183</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>94.21910266041183</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>94.21910266041183</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>94.2191026604123</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>82.98818562329113</v>
       </c>
       <c r="U3" t="n">
-        <v>94.21910266041183</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>94.21910266041183</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="W3" t="n">
-        <v>94.21910266041183</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>82.9881856232907</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.21910266041183</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>94.21910266041183</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>94.21910266041183</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>79.5986541508866</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="Y4" t="n">
-        <v>82.98818562329075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>77.46570586166689</v>
       </c>
       <c r="F5" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>94.21910266041183</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>77.465705861666</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>94.21910266041183</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94.21910266041183</v>
+        <v>15.28972316645154</v>
       </c>
       <c r="C6" t="n">
-        <v>94.21910266041183</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>94.21910266041183</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>23.80175940728705</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>82.98818562329075</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="V7" t="n">
-        <v>94.21910266041183</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="W7" t="n">
-        <v>94.21910266041183</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="X7" t="n">
-        <v>94.21910266041183</v>
+        <v>23.53151942332212</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>319.8762849093202</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>319.8762849093206</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>319.8762849093202</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>269.8040850677757</v>
       </c>
       <c r="G8" t="n">
-        <v>316.5250486194633</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>319.8762849093206</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>319.8762849093206</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>101.7144031379691</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>109.2320240194886</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>65.79123926981569</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>128.5900859387891</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.5058001214172</v>
+        <v>211.6012459717318</v>
       </c>
       <c r="C11" t="n">
-        <v>289.5171170790989</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>280.4984211236269</v>
+        <v>280.4984211236268</v>
       </c>
       <c r="E11" t="n">
-        <v>302.2405586935324</v>
+        <v>302.2405586935323</v>
       </c>
       <c r="F11" t="n">
-        <v>321.4123747815096</v>
+        <v>321.4123747815095</v>
       </c>
       <c r="G11" t="n">
-        <v>322.9636916056461</v>
+        <v>322.963691605646</v>
       </c>
       <c r="H11" t="n">
-        <v>236.984101227952</v>
+        <v>236.9841012279519</v>
       </c>
       <c r="I11" t="n">
-        <v>67.76655404901221</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.0556715320234</v>
+        <v>88.05567153202333</v>
       </c>
       <c r="T11" t="n">
         <v>131.8460619815677</v>
       </c>
       <c r="U11" t="n">
-        <v>124.133184430255</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>270.3122768395531</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>301.0091328684985</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>127.2368531361802</v>
       </c>
       <c r="H12" t="n">
-        <v>96.9647737324037</v>
+        <v>96.9647737324043</v>
       </c>
       <c r="I12" t="n">
         <v>60.66232013214974</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>46.49806561112344</v>
+        <v>46.49806561112343</v>
       </c>
       <c r="S12" t="n">
         <v>147.4755605575067</v>
       </c>
       <c r="T12" t="n">
-        <v>185.9745311655614</v>
+        <v>185.9745311655613</v>
       </c>
       <c r="U12" t="n">
         <v>216.2963996197277</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.12251099611423</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>79.32250584151464</v>
       </c>
       <c r="D13" t="n">
-        <v>62.9438702390931</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>61.89162009487255</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>62.35854442305879</v>
       </c>
       <c r="G13" t="n">
-        <v>78.46191704206591</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>67.65833440264906</v>
+        <v>57.52816630489128</v>
       </c>
       <c r="I13" t="n">
-        <v>49.01134651062365</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.7256351505482</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>119.9895445490431</v>
       </c>
       <c r="T13" t="n">
-        <v>141.5178128501456</v>
+        <v>141.5178128501455</v>
       </c>
       <c r="U13" t="n">
         <v>195.7116878360598</v>
       </c>
       <c r="V13" t="n">
-        <v>44.26726499139299</v>
+        <v>169.5306473957397</v>
       </c>
       <c r="W13" t="n">
-        <v>194.6975334663531</v>
+        <v>194.697533466353</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>140.3426354621561</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.2175032182239</v>
+        <v>131.2175032182238</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>280.4984211236268</v>
       </c>
       <c r="E14" t="n">
-        <v>302.2405586935324</v>
+        <v>302.2405586935323</v>
       </c>
       <c r="F14" t="n">
         <v>321.4123747815095</v>
       </c>
       <c r="G14" t="n">
-        <v>322.9636916056461</v>
+        <v>322.963691605646</v>
       </c>
       <c r="H14" t="n">
-        <v>236.9841012279519</v>
+        <v>236.9841012279518</v>
       </c>
       <c r="I14" t="n">
-        <v>67.76655404901217</v>
+        <v>67.76655404901211</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.05567153202335</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>131.8460619815677</v>
+        <v>62.23062531489425</v>
       </c>
       <c r="U14" t="n">
-        <v>163.7086228358612</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>270.3122768395531</v>
       </c>
       <c r="X14" t="n">
-        <v>229.4309669286213</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>301.0091328684985</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>79.32250584151461</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>61.89162009487251</v>
+        <v>42.62541807840064</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.35854442305876</v>
       </c>
       <c r="G16" t="n">
-        <v>78.46191704206586</v>
+        <v>78.46191704206581</v>
       </c>
       <c r="H16" t="n">
-        <v>67.65833440264902</v>
+        <v>67.65833440264896</v>
       </c>
       <c r="I16" t="n">
-        <v>49.0113465106236</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.72563515054816</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>10.44990791774764</v>
+        <v>119.989544549043</v>
       </c>
       <c r="T16" t="n">
-        <v>141.5178128501455</v>
+        <v>141.5178128501454</v>
       </c>
       <c r="U16" t="n">
-        <v>195.7116878360598</v>
+        <v>195.7116878360597</v>
       </c>
       <c r="V16" t="n">
-        <v>169.5306473957398</v>
+        <v>169.5306473957397</v>
       </c>
       <c r="W16" t="n">
         <v>194.697533466353</v>
       </c>
       <c r="X16" t="n">
-        <v>140.3426354621562</v>
+        <v>140.3426354621561</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.2175032182238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.5232996572355</v>
+        <v>224.5232996572356</v>
       </c>
       <c r="C17" t="n">
-        <v>212.5346166149172</v>
+        <v>212.5346166149173</v>
       </c>
       <c r="D17" t="n">
-        <v>203.5159206594452</v>
+        <v>203.5159206594453</v>
       </c>
       <c r="E17" t="n">
         <v>225.2580582293508</v>
       </c>
       <c r="F17" t="n">
-        <v>244.4298743173292</v>
+        <v>244.429874317328</v>
       </c>
       <c r="G17" t="n">
         <v>245.9811911414645</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.07317106784174</v>
+        <v>11.07317106784183</v>
       </c>
       <c r="T17" t="n">
-        <v>54.8635615173861</v>
+        <v>54.86356151738619</v>
       </c>
       <c r="U17" t="n">
-        <v>86.72612237167957</v>
+        <v>86.72612237167965</v>
       </c>
       <c r="V17" t="n">
-        <v>168.0296768974146</v>
+        <v>168.0296768974147</v>
       </c>
       <c r="W17" t="n">
-        <v>193.3297763753715</v>
+        <v>193.3297763753716</v>
       </c>
       <c r="X17" t="n">
-        <v>212.6300346081181</v>
+        <v>212.6300346081182</v>
       </c>
       <c r="Y17" t="n">
-        <v>224.0266324043169</v>
+        <v>224.026632404317</v>
       </c>
     </row>
     <row r="18">
@@ -1935,7 +1935,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.2368531361808</v>
+        <v>127.2368531361802</v>
       </c>
       <c r="H18" t="n">
         <v>96.9647737324037</v>
@@ -1971,7 +1971,7 @@
         <v>46.49806561112342</v>
       </c>
       <c r="S18" t="n">
-        <v>147.4755605575066</v>
+        <v>147.4755605575072</v>
       </c>
       <c r="T18" t="n">
         <v>185.9745311655613</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.14001053193257</v>
+        <v>16.14001053193266</v>
       </c>
       <c r="C19" t="n">
-        <v>2.340005377333057</v>
+        <v>2.340005377333142</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.479416577884258</v>
+        <v>1.479416577884343</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>93.18671644379411</v>
       </c>
       <c r="S19" t="n">
-        <v>43.00704408486149</v>
+        <v>43.00704408486158</v>
       </c>
       <c r="T19" t="n">
-        <v>64.53531238596388</v>
+        <v>64.53531238596396</v>
       </c>
       <c r="U19" t="n">
-        <v>118.7291873718782</v>
+        <v>118.7291873718783</v>
       </c>
       <c r="V19" t="n">
-        <v>185.7348633753532</v>
+        <v>92.54814693155825</v>
       </c>
       <c r="W19" t="n">
-        <v>117.7150330021714</v>
+        <v>117.7150330021715</v>
       </c>
       <c r="X19" t="n">
-        <v>63.36013499797454</v>
+        <v>63.36013499797463</v>
       </c>
       <c r="Y19" t="n">
-        <v>54.23500275404223</v>
+        <v>54.23500275404231</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.5232996572355</v>
+        <v>224.5232996572356</v>
       </c>
       <c r="C20" t="n">
-        <v>212.5346166149172</v>
+        <v>212.5346166149173</v>
       </c>
       <c r="D20" t="n">
-        <v>203.5159206594452</v>
+        <v>203.5159206594453</v>
       </c>
       <c r="E20" t="n">
         <v>225.2580582293508</v>
       </c>
       <c r="F20" t="n">
-        <v>244.4298743173279</v>
+        <v>244.429874317328</v>
       </c>
       <c r="G20" t="n">
         <v>245.9811911414645</v>
       </c>
       <c r="H20" t="n">
-        <v>160.0016007637703</v>
+        <v>160.0016007637704</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.07317106784174</v>
+        <v>11.07317106784183</v>
       </c>
       <c r="T20" t="n">
-        <v>54.8635615173861</v>
+        <v>54.86356151738617</v>
       </c>
       <c r="U20" t="n">
-        <v>86.72612237168046</v>
+        <v>86.72612237167965</v>
       </c>
       <c r="V20" t="n">
-        <v>168.0296768974146</v>
+        <v>168.0296768974147</v>
       </c>
       <c r="W20" t="n">
-        <v>193.3297763753715</v>
+        <v>193.3297763753716</v>
       </c>
       <c r="X20" t="n">
-        <v>212.6300346081181</v>
+        <v>212.6300346081182</v>
       </c>
       <c r="Y20" t="n">
-        <v>224.0266324043169</v>
+        <v>224.026632404317</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>127.2368531361802</v>
       </c>
       <c r="H21" t="n">
-        <v>96.96477373240431</v>
+        <v>96.9647737324037</v>
       </c>
       <c r="I21" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013215034</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>46.49806561112342</v>
+        <v>46.49806561112343</v>
       </c>
       <c r="S21" t="n">
-        <v>147.4755605575066</v>
+        <v>147.4755605575067</v>
       </c>
       <c r="T21" t="n">
         <v>185.9745311655613</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.14001053193257</v>
+        <v>16.14001053193266</v>
       </c>
       <c r="C22" t="n">
-        <v>2.340005377333057</v>
+        <v>2.340005377333142</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.479416577884258</v>
+        <v>1.479416577884343</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>93.18671644379411</v>
       </c>
       <c r="S22" t="n">
-        <v>136.1937605286566</v>
+        <v>43.00704408486158</v>
       </c>
       <c r="T22" t="n">
-        <v>64.53531238596388</v>
+        <v>64.53531238596396</v>
       </c>
       <c r="U22" t="n">
-        <v>118.7291873718782</v>
+        <v>118.7291873718783</v>
       </c>
       <c r="V22" t="n">
-        <v>92.54814693155816</v>
+        <v>92.54814693155825</v>
       </c>
       <c r="W22" t="n">
-        <v>117.7150330021714</v>
+        <v>117.7150330021715</v>
       </c>
       <c r="X22" t="n">
-        <v>63.36013499797454</v>
+        <v>63.36013499797463</v>
       </c>
       <c r="Y22" t="n">
-        <v>54.23500275404223</v>
+        <v>54.23500275404231</v>
       </c>
     </row>
     <row r="23">
@@ -2315,19 +2315,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.5232996572355</v>
+        <v>224.5232996572356</v>
       </c>
       <c r="C23" t="n">
-        <v>212.5346166149172</v>
+        <v>212.5346166149173</v>
       </c>
       <c r="D23" t="n">
-        <v>203.5159206594452</v>
+        <v>203.5159206594453</v>
       </c>
       <c r="E23" t="n">
         <v>225.2580582293508</v>
       </c>
       <c r="F23" t="n">
-        <v>244.4298743173279</v>
+        <v>244.429874317328</v>
       </c>
       <c r="G23" t="n">
         <v>245.9811911414645</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.07317106784174</v>
+        <v>11.0731710678418</v>
       </c>
       <c r="T23" t="n">
-        <v>54.8635615173861</v>
+        <v>54.86356151738615</v>
       </c>
       <c r="U23" t="n">
-        <v>86.72612237167957</v>
+        <v>86.72612237167962</v>
       </c>
       <c r="V23" t="n">
-        <v>168.0296768974146</v>
+        <v>168.0296768974147</v>
       </c>
       <c r="W23" t="n">
-        <v>193.3297763753715</v>
+        <v>193.3297763753716</v>
       </c>
       <c r="X23" t="n">
-        <v>212.6300346081181</v>
+        <v>212.6300346081182</v>
       </c>
       <c r="Y23" t="n">
-        <v>224.0266324043169</v>
+        <v>224.026632404317</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.14001053193257</v>
+        <v>16.14001053193263</v>
       </c>
       <c r="C25" t="n">
-        <v>2.340005377333057</v>
+        <v>2.340005377333114</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.479416577884258</v>
+        <v>1.479416577884314</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>136.1937605286566</v>
+        <v>43.00704408486155</v>
       </c>
       <c r="T25" t="n">
-        <v>64.53531238596388</v>
+        <v>64.53531238596393</v>
       </c>
       <c r="U25" t="n">
-        <v>118.7291873718782</v>
+        <v>211.9159038156726</v>
       </c>
       <c r="V25" t="n">
-        <v>92.54814693155816</v>
+        <v>92.54814693155822</v>
       </c>
       <c r="W25" t="n">
-        <v>117.7150330021714</v>
+        <v>117.7150330021715</v>
       </c>
       <c r="X25" t="n">
-        <v>63.36013499797454</v>
+        <v>63.3601349979746</v>
       </c>
       <c r="Y25" t="n">
-        <v>54.23500275404223</v>
+        <v>54.23500275404228</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>283.519722276351</v>
+        <v>283.5197222763511</v>
       </c>
       <c r="C26" t="n">
         <v>271.5310392340328</v>
@@ -2573,7 +2573,7 @@
         <v>218.9980233828858</v>
       </c>
       <c r="I26" t="n">
-        <v>49.78047620394611</v>
+        <v>49.78047620394614</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.06959368695729</v>
+        <v>70.06959368695732</v>
       </c>
       <c r="T26" t="n">
         <v>113.8599841365017</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.13643315104812</v>
+        <v>75.13643315104815</v>
       </c>
       <c r="C28" t="n">
-        <v>61.33642799644861</v>
+        <v>61.33642799644863</v>
       </c>
       <c r="D28" t="n">
-        <v>44.957792394027</v>
+        <v>44.95779239402702</v>
       </c>
       <c r="E28" t="n">
-        <v>43.90554224980644</v>
+        <v>43.90554224980647</v>
       </c>
       <c r="F28" t="n">
-        <v>44.37246657799275</v>
+        <v>44.37246657799278</v>
       </c>
       <c r="G28" t="n">
-        <v>60.47583919699981</v>
+        <v>60.47583919699984</v>
       </c>
       <c r="H28" t="n">
-        <v>49.67225655758295</v>
+        <v>49.67225655758298</v>
       </c>
       <c r="I28" t="n">
-        <v>31.02526866555754</v>
+        <v>31.02526866555757</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>33.7395573054821</v>
+        <v>33.73955730548213</v>
       </c>
       <c r="S28" t="n">
-        <v>102.003466703977</v>
+        <v>102.0034667039771</v>
       </c>
       <c r="T28" t="n">
-        <v>123.5317350050794</v>
+        <v>123.5317350050795</v>
       </c>
       <c r="U28" t="n">
         <v>177.7256099909937</v>
@@ -2807,7 +2807,7 @@
         <v>304.9776137605801</v>
       </c>
       <c r="H29" t="n">
-        <v>218.9980233828859</v>
+        <v>218.9980233828858</v>
       </c>
       <c r="I29" t="n">
         <v>49.78047620394614</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>43.00704408486146</v>
+        <v>136.1937605286567</v>
       </c>
       <c r="T34" t="n">
-        <v>157.7220288297591</v>
+        <v>64.53531238596385</v>
       </c>
       <c r="U34" t="n">
         <v>118.7291873718781</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>46.49806561112342</v>
+        <v>46.49806561112366</v>
       </c>
       <c r="S36" t="n">
         <v>147.4755605575066</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>93.18671644379431</v>
       </c>
       <c r="G37" t="n">
         <v>1.479416577884314</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>136.193760528656</v>
+        <v>43.00704408486155</v>
       </c>
       <c r="T37" t="n">
         <v>64.53531238596393</v>
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>224.5232996572356</v>
+        <v>224.5232996572355</v>
       </c>
       <c r="C38" t="n">
-        <v>212.5346166149173</v>
+        <v>212.5346166149172</v>
       </c>
       <c r="D38" t="n">
-        <v>203.5159206594453</v>
+        <v>203.5159206594452</v>
       </c>
       <c r="E38" t="n">
-        <v>225.2580582293508</v>
+        <v>225.2580582293507</v>
       </c>
       <c r="F38" t="n">
-        <v>244.429874317328</v>
+        <v>244.4298743173279</v>
       </c>
       <c r="G38" t="n">
-        <v>245.9811911414645</v>
+        <v>245.9811911414644</v>
       </c>
       <c r="H38" t="n">
         <v>160.0016007637703</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.0731710678418</v>
+        <v>11.07317106784171</v>
       </c>
       <c r="T38" t="n">
-        <v>54.86356151738616</v>
+        <v>54.86356151738607</v>
       </c>
       <c r="U38" t="n">
-        <v>86.72612237167962</v>
+        <v>86.72612237167954</v>
       </c>
       <c r="V38" t="n">
-        <v>168.0296768974147</v>
+        <v>168.0296768974146</v>
       </c>
       <c r="W38" t="n">
-        <v>193.3297763753716</v>
+        <v>193.3297763753715</v>
       </c>
       <c r="X38" t="n">
-        <v>212.6300346081182</v>
+        <v>212.6300346081181</v>
       </c>
       <c r="Y38" t="n">
-        <v>224.026632404317</v>
+        <v>224.0266324043169</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>46.49806561112366</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S39" t="n">
         <v>147.4755605575066</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.14001053193263</v>
+        <v>16.14001053193255</v>
       </c>
       <c r="C40" t="n">
-        <v>2.340005377333114</v>
+        <v>2.340005377333028</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.479416577884314</v>
+        <v>1.479416577884229</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>47.34362796447564</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>43.00704408486155</v>
+        <v>43.00704408486146</v>
       </c>
       <c r="T40" t="n">
-        <v>64.53531238596393</v>
+        <v>64.53531238596385</v>
       </c>
       <c r="U40" t="n">
-        <v>118.7291873718782</v>
+        <v>118.7291873718781</v>
       </c>
       <c r="V40" t="n">
-        <v>92.54814693155822</v>
+        <v>92.54814693155814</v>
       </c>
       <c r="W40" t="n">
-        <v>117.7150330021715</v>
+        <v>117.7150330021714</v>
       </c>
       <c r="X40" t="n">
-        <v>63.3601349979746</v>
+        <v>63.36013499797451</v>
       </c>
       <c r="Y40" t="n">
-        <v>76.27268305197643</v>
+        <v>147.4217191978375</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.5232996572356</v>
+        <v>224.5232996572355</v>
       </c>
       <c r="C41" t="n">
-        <v>212.5346166149173</v>
+        <v>212.5346166149172</v>
       </c>
       <c r="D41" t="n">
-        <v>203.5159206594453</v>
+        <v>203.5159206594452</v>
       </c>
       <c r="E41" t="n">
-        <v>225.2580582293508</v>
+        <v>225.2580582293507</v>
       </c>
       <c r="F41" t="n">
-        <v>244.429874317328</v>
+        <v>244.4298743173279</v>
       </c>
       <c r="G41" t="n">
-        <v>245.9811911414645</v>
+        <v>245.9811911414644</v>
       </c>
       <c r="H41" t="n">
         <v>160.0016007637703</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.0731710678418</v>
+        <v>11.07317106784171</v>
       </c>
       <c r="T41" t="n">
-        <v>54.86356151738616</v>
+        <v>54.86356151738607</v>
       </c>
       <c r="U41" t="n">
-        <v>86.72612237167962</v>
+        <v>86.72612237167954</v>
       </c>
       <c r="V41" t="n">
-        <v>168.0296768974147</v>
+        <v>168.0296768974146</v>
       </c>
       <c r="W41" t="n">
-        <v>193.3297763753716</v>
+        <v>193.3297763753715</v>
       </c>
       <c r="X41" t="n">
-        <v>212.6300346081182</v>
+        <v>212.6300346081181</v>
       </c>
       <c r="Y41" t="n">
-        <v>224.026632404317</v>
+        <v>224.0266324043169</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.14001053193263</v>
+        <v>16.14001053193255</v>
       </c>
       <c r="C43" t="n">
-        <v>2.340005377333114</v>
+        <v>2.340005377333028</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.479416577884314</v>
+        <v>1.479416577884229</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>93.18671644379523</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>43.00704408486155</v>
+        <v>43.00704408486146</v>
       </c>
       <c r="T43" t="n">
-        <v>157.7220288297584</v>
+        <v>64.53531238596385</v>
       </c>
       <c r="U43" t="n">
-        <v>118.7291873718782</v>
+        <v>118.7291873718781</v>
       </c>
       <c r="V43" t="n">
-        <v>92.54814693155822</v>
+        <v>92.54814693155814</v>
       </c>
       <c r="W43" t="n">
-        <v>117.7150330021715</v>
+        <v>117.7150330021714</v>
       </c>
       <c r="X43" t="n">
-        <v>63.3601349979746</v>
+        <v>63.36013499797451</v>
       </c>
       <c r="Y43" t="n">
-        <v>54.23500275404228</v>
+        <v>54.2350027540422</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.5232996572356</v>
+        <v>224.5232996572355</v>
       </c>
       <c r="C44" t="n">
-        <v>212.5346166149173</v>
+        <v>212.5346166149172</v>
       </c>
       <c r="D44" t="n">
-        <v>203.5159206594453</v>
+        <v>203.5159206594452</v>
       </c>
       <c r="E44" t="n">
-        <v>225.2580582293508</v>
+        <v>225.2580582293507</v>
       </c>
       <c r="F44" t="n">
-        <v>244.429874317328</v>
+        <v>244.4298743173279</v>
       </c>
       <c r="G44" t="n">
-        <v>245.9811911414645</v>
+        <v>245.9811911414644</v>
       </c>
       <c r="H44" t="n">
         <v>160.0016007637703</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.0731710678418</v>
+        <v>11.07317106784171</v>
       </c>
       <c r="T44" t="n">
-        <v>54.86356151738616</v>
+        <v>54.86356151738607</v>
       </c>
       <c r="U44" t="n">
-        <v>86.72612237167962</v>
+        <v>86.72612237167954</v>
       </c>
       <c r="V44" t="n">
-        <v>168.0296768974147</v>
+        <v>168.0296768974146</v>
       </c>
       <c r="W44" t="n">
-        <v>193.3297763753716</v>
+        <v>193.3297763753715</v>
       </c>
       <c r="X44" t="n">
-        <v>212.6300346081182</v>
+        <v>212.6300346081181</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.026632404317</v>
+        <v>224.0266324043169</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I45" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214902</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.14001053193263</v>
+        <v>16.14001053193255</v>
       </c>
       <c r="C46" t="n">
-        <v>2.340005377333114</v>
+        <v>2.340005377333028</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.479416577884314</v>
+        <v>23.5170968758192</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4177,31 +4177,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>43.00704408486155</v>
+        <v>43.00704408486146</v>
       </c>
       <c r="T46" t="n">
-        <v>64.53531238596393</v>
+        <v>64.53531238596385</v>
       </c>
       <c r="U46" t="n">
-        <v>118.7291873718782</v>
+        <v>118.7291873718781</v>
       </c>
       <c r="V46" t="n">
-        <v>92.54814693155822</v>
+        <v>92.54814693155814</v>
       </c>
       <c r="W46" t="n">
-        <v>117.7150330021715</v>
+        <v>117.7150330021714</v>
       </c>
       <c r="X46" t="n">
-        <v>63.3601349979746</v>
+        <v>63.36013499797451</v>
       </c>
       <c r="Y46" t="n">
-        <v>147.4217191978366</v>
+        <v>54.2350027540422</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186.5347891054618</v>
+        <v>91.36397833736947</v>
       </c>
       <c r="C2" t="n">
-        <v>186.5347891054618</v>
+        <v>29.71189736766657</v>
       </c>
       <c r="D2" t="n">
-        <v>186.5347891054618</v>
+        <v>29.71189736766657</v>
       </c>
       <c r="E2" t="n">
-        <v>186.5347891054618</v>
+        <v>29.71189736766657</v>
       </c>
       <c r="F2" t="n">
-        <v>176.4240024560362</v>
+        <v>19.60111071824095</v>
       </c>
       <c r="G2" t="n">
-        <v>164.3604199506282</v>
+        <v>7.537528212832984</v>
       </c>
       <c r="H2" t="n">
-        <v>102.7083389809257</v>
+        <v>7.537528212832984</v>
       </c>
       <c r="I2" t="n">
-        <v>7.537528212832947</v>
+        <v>7.537528212832984</v>
       </c>
       <c r="J2" t="n">
-        <v>79.53607248563861</v>
+        <v>79.53607248563864</v>
       </c>
       <c r="K2" t="n">
-        <v>79.53607248563861</v>
+        <v>97.04567574022464</v>
       </c>
       <c r="L2" t="n">
-        <v>97.04567574022423</v>
+        <v>97.04567574022464</v>
       </c>
       <c r="M2" t="n">
-        <v>190.3225873740319</v>
+        <v>97.04567574022464</v>
       </c>
       <c r="N2" t="n">
-        <v>283.5994990078397</v>
+        <v>190.3225873740328</v>
       </c>
       <c r="O2" t="n">
-        <v>376.8764106416473</v>
+        <v>190.3225873740328</v>
       </c>
       <c r="P2" t="n">
-        <v>376.8764106416473</v>
+        <v>283.599499007841</v>
       </c>
       <c r="Q2" t="n">
-        <v>376.8764106416473</v>
+        <v>376.8764106416492</v>
       </c>
       <c r="R2" t="n">
-        <v>376.8764106416473</v>
+        <v>376.8764106416492</v>
       </c>
       <c r="S2" t="n">
-        <v>281.7055998735545</v>
+        <v>376.8764106416492</v>
       </c>
       <c r="T2" t="n">
-        <v>186.5347891054618</v>
+        <v>376.8764106416492</v>
       </c>
       <c r="U2" t="n">
-        <v>186.5347891054618</v>
+        <v>376.8764106416492</v>
       </c>
       <c r="V2" t="n">
-        <v>186.5347891054618</v>
+        <v>376.8764106416492</v>
       </c>
       <c r="W2" t="n">
-        <v>186.5347891054618</v>
+        <v>376.8764106416492</v>
       </c>
       <c r="X2" t="n">
-        <v>186.5347891054618</v>
+        <v>281.705599873556</v>
       </c>
       <c r="Y2" t="n">
-        <v>186.5347891054618</v>
+        <v>186.5347891054627</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.537528212832947</v>
+        <v>102.7083389809262</v>
       </c>
       <c r="C3" t="n">
-        <v>7.537528212832947</v>
+        <v>102.7083389809262</v>
       </c>
       <c r="D3" t="n">
-        <v>7.537528212832947</v>
+        <v>102.7083389809262</v>
       </c>
       <c r="E3" t="n">
-        <v>7.537528212832947</v>
+        <v>102.7083389809262</v>
       </c>
       <c r="F3" t="n">
-        <v>7.537528212832947</v>
+        <v>102.7083389809262</v>
       </c>
       <c r="G3" t="n">
-        <v>7.537528212832947</v>
+        <v>102.7083389809262</v>
       </c>
       <c r="H3" t="n">
-        <v>7.537528212832947</v>
+        <v>7.537528212832984</v>
       </c>
       <c r="I3" t="n">
-        <v>7.537528212832947</v>
+        <v>7.537528212832984</v>
       </c>
       <c r="J3" t="n">
-        <v>7.537528212832947</v>
+        <v>7.537528212832984</v>
       </c>
       <c r="K3" t="n">
-        <v>97.04567574022423</v>
+        <v>7.537528212832984</v>
       </c>
       <c r="L3" t="n">
-        <v>190.3225873740319</v>
+        <v>100.8144398466412</v>
       </c>
       <c r="M3" t="n">
-        <v>190.3225873740319</v>
+        <v>190.3225873740328</v>
       </c>
       <c r="N3" t="n">
-        <v>190.3225873740319</v>
+        <v>190.3225873740328</v>
       </c>
       <c r="O3" t="n">
-        <v>190.3225873740319</v>
+        <v>283.599499007841</v>
       </c>
       <c r="P3" t="n">
-        <v>283.5994990078397</v>
+        <v>376.8764106416492</v>
       </c>
       <c r="Q3" t="n">
-        <v>376.8764106416473</v>
+        <v>376.8764106416492</v>
       </c>
       <c r="R3" t="n">
-        <v>376.8764106416473</v>
+        <v>376.8764106416492</v>
       </c>
       <c r="S3" t="n">
-        <v>376.8764106416473</v>
+        <v>281.705599873556</v>
       </c>
       <c r="T3" t="n">
-        <v>376.8764106416473</v>
+        <v>197.8791497490195</v>
       </c>
       <c r="U3" t="n">
-        <v>281.7055998735545</v>
+        <v>197.8791497490195</v>
       </c>
       <c r="V3" t="n">
-        <v>186.5347891054618</v>
+        <v>102.7083389809262</v>
       </c>
       <c r="W3" t="n">
-        <v>91.36397833736902</v>
+        <v>102.7083389809262</v>
       </c>
       <c r="X3" t="n">
-        <v>7.537528212832947</v>
+        <v>102.7083389809262</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.537528212832947</v>
+        <v>102.7083389809262</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197.8791497490185</v>
+        <v>67.59476679866026</v>
       </c>
       <c r="C4" t="n">
-        <v>102.7083389809257</v>
+        <v>67.59476679866026</v>
       </c>
       <c r="D4" t="n">
-        <v>7.537528212832947</v>
+        <v>67.59476679866026</v>
       </c>
       <c r="E4" t="n">
-        <v>7.537528212832947</v>
+        <v>67.59476679866026</v>
       </c>
       <c r="F4" t="n">
-        <v>7.537528212832947</v>
+        <v>67.59476679866026</v>
       </c>
       <c r="G4" t="n">
-        <v>7.537528212832947</v>
+        <v>67.59476679866026</v>
       </c>
       <c r="H4" t="n">
-        <v>7.537528212832947</v>
+        <v>67.59476679866026</v>
       </c>
       <c r="I4" t="n">
-        <v>7.537528212832947</v>
+        <v>67.59476679866026</v>
       </c>
       <c r="J4" t="n">
-        <v>7.537528212832947</v>
+        <v>7.537528212832984</v>
       </c>
       <c r="K4" t="n">
-        <v>7.537528212832947</v>
+        <v>7.537528212832984</v>
       </c>
       <c r="L4" t="n">
-        <v>100.8144398466407</v>
+        <v>34.07719201208684</v>
       </c>
       <c r="M4" t="n">
-        <v>190.3225873740319</v>
+        <v>127.354103645895</v>
       </c>
       <c r="N4" t="n">
-        <v>283.5994990078397</v>
+        <v>220.6310152797032</v>
       </c>
       <c r="O4" t="n">
-        <v>376.8764106416473</v>
+        <v>313.9079269135114</v>
       </c>
       <c r="P4" t="n">
-        <v>376.8764106416473</v>
+        <v>376.8764106416492</v>
       </c>
       <c r="Q4" t="n">
-        <v>376.8764106416473</v>
+        <v>338.3390692953383</v>
       </c>
       <c r="R4" t="n">
-        <v>376.8764106416473</v>
+        <v>338.3390692953383</v>
       </c>
       <c r="S4" t="n">
-        <v>376.8764106416473</v>
+        <v>338.3390692953383</v>
       </c>
       <c r="T4" t="n">
-        <v>376.8764106416473</v>
+        <v>338.3390692953383</v>
       </c>
       <c r="U4" t="n">
-        <v>376.8764106416473</v>
+        <v>257.9363883348468</v>
       </c>
       <c r="V4" t="n">
-        <v>376.8764106416473</v>
+        <v>162.7655775667535</v>
       </c>
       <c r="W4" t="n">
-        <v>376.8764106416473</v>
+        <v>162.7655775667535</v>
       </c>
       <c r="X4" t="n">
-        <v>376.8764106416473</v>
+        <v>67.59476679866026</v>
       </c>
       <c r="Y4" t="n">
-        <v>293.0499605171112</v>
+        <v>67.59476679866026</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>112.8191256303513</v>
+        <v>286.2381241375026</v>
       </c>
       <c r="C5" t="n">
-        <v>112.8191256303513</v>
+        <v>286.2381241375026</v>
       </c>
       <c r="D5" t="n">
-        <v>112.8191256303513</v>
+        <v>286.2381241375026</v>
       </c>
       <c r="E5" t="n">
-        <v>112.8191256303513</v>
+        <v>207.9899363984451</v>
       </c>
       <c r="F5" t="n">
-        <v>102.7083389809257</v>
+        <v>197.8791497490195</v>
       </c>
       <c r="G5" t="n">
-        <v>7.537528212832947</v>
+        <v>102.7083389809262</v>
       </c>
       <c r="H5" t="n">
-        <v>7.537528212832947</v>
+        <v>7.537528212832984</v>
       </c>
       <c r="I5" t="n">
-        <v>7.537528212832947</v>
+        <v>7.537528212832984</v>
       </c>
       <c r="J5" t="n">
-        <v>7.537528212832947</v>
+        <v>7.537528212832984</v>
       </c>
       <c r="K5" t="n">
-        <v>7.537528212832947</v>
+        <v>7.537528212832984</v>
       </c>
       <c r="L5" t="n">
-        <v>97.04567574022423</v>
+        <v>100.8144398466412</v>
       </c>
       <c r="M5" t="n">
-        <v>190.3225873740319</v>
+        <v>100.8144398466412</v>
       </c>
       <c r="N5" t="n">
-        <v>283.5994990078397</v>
+        <v>190.3225873740328</v>
       </c>
       <c r="O5" t="n">
-        <v>376.8764106416473</v>
+        <v>283.599499007841</v>
       </c>
       <c r="P5" t="n">
-        <v>376.8764106416473</v>
+        <v>376.8764106416492</v>
       </c>
       <c r="Q5" t="n">
-        <v>376.8764106416473</v>
+        <v>376.8764106416492</v>
       </c>
       <c r="R5" t="n">
-        <v>286.2381241375007</v>
+        <v>286.2381241375026</v>
       </c>
       <c r="S5" t="n">
-        <v>207.9899363984441</v>
+        <v>286.2381241375026</v>
       </c>
       <c r="T5" t="n">
-        <v>207.9899363984441</v>
+        <v>286.2381241375026</v>
       </c>
       <c r="U5" t="n">
-        <v>112.8191256303513</v>
+        <v>286.2381241375026</v>
       </c>
       <c r="V5" t="n">
-        <v>112.8191256303513</v>
+        <v>286.2381241375026</v>
       </c>
       <c r="W5" t="n">
-        <v>112.8191256303513</v>
+        <v>286.2381241375026</v>
       </c>
       <c r="X5" t="n">
-        <v>112.8191256303513</v>
+        <v>286.2381241375026</v>
       </c>
       <c r="Y5" t="n">
-        <v>112.8191256303513</v>
+        <v>286.2381241375026</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102.7083389809257</v>
+        <v>266.2614350589585</v>
       </c>
       <c r="C6" t="n">
-        <v>7.537528212832947</v>
+        <v>171.0906242908652</v>
       </c>
       <c r="D6" t="n">
-        <v>7.537528212832947</v>
+        <v>171.0906242908652</v>
       </c>
       <c r="E6" t="n">
-        <v>7.537528212832947</v>
+        <v>171.0906242908652</v>
       </c>
       <c r="F6" t="n">
-        <v>7.537528212832947</v>
+        <v>171.0906242908652</v>
       </c>
       <c r="G6" t="n">
-        <v>7.537528212832947</v>
+        <v>171.0906242908652</v>
       </c>
       <c r="H6" t="n">
-        <v>7.537528212832947</v>
+        <v>75.91981352277199</v>
       </c>
       <c r="I6" t="n">
-        <v>7.537528212832947</v>
+        <v>7.537528212832984</v>
       </c>
       <c r="J6" t="n">
-        <v>67.79167474593909</v>
+        <v>7.537528212832984</v>
       </c>
       <c r="K6" t="n">
-        <v>161.0685863797468</v>
+        <v>7.537528212832984</v>
       </c>
       <c r="L6" t="n">
-        <v>190.3225873740319</v>
+        <v>100.8144398466412</v>
       </c>
       <c r="M6" t="n">
-        <v>190.3225873740319</v>
+        <v>100.8144398466412</v>
       </c>
       <c r="N6" t="n">
-        <v>190.3225873740319</v>
+        <v>194.0913514804494</v>
       </c>
       <c r="O6" t="n">
-        <v>190.3225873740319</v>
+        <v>283.599499007841</v>
       </c>
       <c r="P6" t="n">
-        <v>283.5994990078397</v>
+        <v>283.599499007841</v>
       </c>
       <c r="Q6" t="n">
-        <v>376.8764106416473</v>
+        <v>376.8764106416492</v>
       </c>
       <c r="R6" t="n">
-        <v>317.0921417365931</v>
+        <v>376.8764106416492</v>
       </c>
       <c r="S6" t="n">
-        <v>221.9213309685004</v>
+        <v>281.705599873556</v>
       </c>
       <c r="T6" t="n">
-        <v>221.9213309685004</v>
+        <v>281.705599873556</v>
       </c>
       <c r="U6" t="n">
-        <v>197.8791497490185</v>
+        <v>281.705599873556</v>
       </c>
       <c r="V6" t="n">
-        <v>197.8791497490185</v>
+        <v>281.705599873556</v>
       </c>
       <c r="W6" t="n">
-        <v>197.8791497490185</v>
+        <v>281.705599873556</v>
       </c>
       <c r="X6" t="n">
-        <v>197.8791497490185</v>
+        <v>281.705599873556</v>
       </c>
       <c r="Y6" t="n">
-        <v>197.8791497490185</v>
+        <v>281.705599873556</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.537528212832947</v>
+        <v>67.59476679866026</v>
       </c>
       <c r="C7" t="n">
-        <v>7.537528212832947</v>
+        <v>67.59476679866026</v>
       </c>
       <c r="D7" t="n">
-        <v>7.537528212832947</v>
+        <v>67.59476679866026</v>
       </c>
       <c r="E7" t="n">
-        <v>7.537528212832947</v>
+        <v>67.59476679866026</v>
       </c>
       <c r="F7" t="n">
-        <v>7.537528212832947</v>
+        <v>67.59476679866026</v>
       </c>
       <c r="G7" t="n">
-        <v>7.537528212832947</v>
+        <v>67.59476679866026</v>
       </c>
       <c r="H7" t="n">
-        <v>7.537528212832947</v>
+        <v>67.59476679866026</v>
       </c>
       <c r="I7" t="n">
-        <v>7.537528212832947</v>
+        <v>67.59476679866026</v>
       </c>
       <c r="J7" t="n">
-        <v>7.537528212832947</v>
+        <v>7.537528212832984</v>
       </c>
       <c r="K7" t="n">
-        <v>7.537528212832947</v>
+        <v>7.537528212832984</v>
       </c>
       <c r="L7" t="n">
-        <v>100.8144398466407</v>
+        <v>100.8144398466412</v>
       </c>
       <c r="M7" t="n">
-        <v>194.0913514804484</v>
+        <v>194.0913514804494</v>
       </c>
       <c r="N7" t="n">
-        <v>283.5994990078397</v>
+        <v>283.599499007841</v>
       </c>
       <c r="O7" t="n">
-        <v>376.8764106416473</v>
+        <v>376.8764106416492</v>
       </c>
       <c r="P7" t="n">
-        <v>376.8764106416473</v>
+        <v>376.8764106416492</v>
       </c>
       <c r="Q7" t="n">
-        <v>376.8764106416473</v>
+        <v>376.8764106416492</v>
       </c>
       <c r="R7" t="n">
-        <v>376.8764106416473</v>
+        <v>376.8764106416492</v>
       </c>
       <c r="S7" t="n">
-        <v>376.8764106416473</v>
+        <v>376.8764106416492</v>
       </c>
       <c r="T7" t="n">
-        <v>376.8764106416473</v>
+        <v>376.8764106416492</v>
       </c>
       <c r="U7" t="n">
-        <v>293.0499605171112</v>
+        <v>281.705599873556</v>
       </c>
       <c r="V7" t="n">
-        <v>197.8791497490185</v>
+        <v>186.5347891054627</v>
       </c>
       <c r="W7" t="n">
-        <v>102.7083389809257</v>
+        <v>91.36397833736947</v>
       </c>
       <c r="X7" t="n">
-        <v>7.537528212832947</v>
+        <v>67.59476679866026</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.537528212832947</v>
+        <v>67.59476679866026</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>678.5305192692254</v>
+        <v>633.290422648756</v>
       </c>
       <c r="C8" t="n">
-        <v>678.5305192692254</v>
+        <v>310.1830641544927</v>
       </c>
       <c r="D8" t="n">
-        <v>678.5305192692254</v>
+        <v>310.1830641544927</v>
       </c>
       <c r="E8" t="n">
-        <v>355.4231607749625</v>
+        <v>310.1830641544927</v>
       </c>
       <c r="F8" t="n">
-        <v>345.3123741255368</v>
+        <v>37.65368529815362</v>
       </c>
       <c r="G8" t="n">
-        <v>25.59010279274562</v>
+        <v>25.59010279274565</v>
       </c>
       <c r="H8" t="n">
-        <v>25.59010279274562</v>
+        <v>25.59010279274565</v>
       </c>
       <c r="I8" t="n">
-        <v>25.59010279274562</v>
+        <v>25.59010279274565</v>
       </c>
       <c r="J8" t="n">
-        <v>25.59010279274562</v>
+        <v>25.59010279274565</v>
       </c>
       <c r="K8" t="n">
-        <v>25.59010279274562</v>
+        <v>265.7304748375284</v>
       </c>
       <c r="L8" t="n">
-        <v>342.2676248529726</v>
+        <v>582.4079968977558</v>
       </c>
       <c r="M8" t="n">
-        <v>657.82303310422</v>
+        <v>582.4079968977558</v>
       </c>
       <c r="N8" t="n">
-        <v>974.5005551644471</v>
+        <v>899.0855189579831</v>
       </c>
       <c r="O8" t="n">
-        <v>1279.505139637281</v>
+        <v>1204.090103430817</v>
       </c>
       <c r="P8" t="n">
-        <v>1279.505139637281</v>
+        <v>1279.505139637283</v>
       </c>
       <c r="Q8" t="n">
-        <v>1279.505139637281</v>
+        <v>1279.505139637283</v>
       </c>
       <c r="R8" t="n">
-        <v>1188.866853133134</v>
+        <v>1279.505139637283</v>
       </c>
       <c r="S8" t="n">
-        <v>1001.637877763488</v>
+        <v>1279.505139637283</v>
       </c>
       <c r="T8" t="n">
-        <v>1001.637877763488</v>
+        <v>1279.505139637283</v>
       </c>
       <c r="U8" t="n">
-        <v>1001.637877763488</v>
+        <v>1279.505139637283</v>
       </c>
       <c r="V8" t="n">
-        <v>1001.637877763488</v>
+        <v>956.3977811430193</v>
       </c>
       <c r="W8" t="n">
-        <v>1001.637877763488</v>
+        <v>956.3977811430193</v>
       </c>
       <c r="X8" t="n">
-        <v>1001.637877763488</v>
+        <v>633.290422648756</v>
       </c>
       <c r="Y8" t="n">
-        <v>1001.637877763488</v>
+        <v>633.290422648756</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>431.3458649575962</v>
+        <v>526.2955107792716</v>
       </c>
       <c r="C9" t="n">
-        <v>431.3458649575962</v>
+        <v>364.5918380202263</v>
       </c>
       <c r="D9" t="n">
-        <v>431.3458649575962</v>
+        <v>364.5918380202263</v>
       </c>
       <c r="E9" t="n">
-        <v>328.6040436061122</v>
+        <v>364.5918380202263</v>
       </c>
       <c r="F9" t="n">
-        <v>193.9102455559866</v>
+        <v>254.2564602227631</v>
       </c>
       <c r="G9" t="n">
-        <v>193.9102455559866</v>
+        <v>125.5279602460476</v>
       </c>
       <c r="H9" t="n">
-        <v>93.97238810268463</v>
+        <v>25.59010279274565</v>
       </c>
       <c r="I9" t="n">
-        <v>25.59010279274562</v>
+        <v>25.59010279274565</v>
       </c>
       <c r="J9" t="n">
-        <v>85.84424932585176</v>
+        <v>85.84424932585179</v>
       </c>
       <c r="K9" t="n">
-        <v>315.3348018860404</v>
+        <v>315.3348018860405</v>
       </c>
       <c r="L9" t="n">
-        <v>315.3348018860404</v>
+        <v>502.9600685157636</v>
       </c>
       <c r="M9" t="n">
-        <v>632.0123239462674</v>
+        <v>502.9600685157636</v>
       </c>
       <c r="N9" t="n">
-        <v>632.0123239462674</v>
+        <v>502.9600685157636</v>
       </c>
       <c r="O9" t="n">
-        <v>819.6375905759894</v>
+        <v>819.637590575991</v>
       </c>
       <c r="P9" t="n">
-        <v>1121.733509851687</v>
+        <v>1121.733509851688</v>
       </c>
       <c r="Q9" t="n">
-        <v>1279.505139637281</v>
+        <v>1279.505139637283</v>
       </c>
       <c r="R9" t="n">
-        <v>1219.720870732227</v>
+        <v>1219.720870732228</v>
       </c>
       <c r="S9" t="n">
-        <v>1066.921383744967</v>
+        <v>1066.921383744969</v>
       </c>
       <c r="T9" t="n">
-        <v>878.2362799109521</v>
+        <v>878.2362799109537</v>
       </c>
       <c r="U9" t="n">
-        <v>659.7414875092622</v>
+        <v>878.2362799109537</v>
       </c>
       <c r="V9" t="n">
-        <v>431.3458649575962</v>
+        <v>878.2362799109537</v>
       </c>
       <c r="W9" t="n">
-        <v>431.3458649575962</v>
+        <v>878.2362799109537</v>
       </c>
       <c r="X9" t="n">
-        <v>431.3458649575962</v>
+        <v>878.2362799109537</v>
       </c>
       <c r="Y9" t="n">
-        <v>431.3458649575962</v>
+        <v>685.7149535605325</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>519.1120066923671</v>
+        <v>557.6493480386781</v>
       </c>
       <c r="C10" t="n">
-        <v>519.1120066923671</v>
+        <v>557.6493480386781</v>
       </c>
       <c r="D10" t="n">
-        <v>519.1120066923671</v>
+        <v>557.6493480386781</v>
       </c>
       <c r="E10" t="n">
-        <v>519.1120066923671</v>
+        <v>491.19355079644</v>
       </c>
       <c r="F10" t="n">
-        <v>519.1120066923671</v>
+        <v>338.7128958222171</v>
       </c>
       <c r="G10" t="n">
-        <v>389.2230309966205</v>
+        <v>169.7931471900671</v>
       </c>
       <c r="H10" t="n">
-        <v>229.8503857758944</v>
+        <v>169.7931471900671</v>
       </c>
       <c r="I10" t="n">
-        <v>85.6473413785729</v>
+        <v>25.59010279274565</v>
       </c>
       <c r="J10" t="n">
-        <v>25.59010279274562</v>
+        <v>25.59010279274565</v>
       </c>
       <c r="K10" t="n">
-        <v>59.19429053738904</v>
+        <v>59.19429053738907</v>
       </c>
       <c r="L10" t="n">
-        <v>159.8013699376485</v>
+        <v>159.8013699376486</v>
       </c>
       <c r="M10" t="n">
         <v>277.7948760652503</v>
       </c>
       <c r="N10" t="n">
-        <v>396.2172178148506</v>
+        <v>396.2172178148507</v>
       </c>
       <c r="O10" t="n">
-        <v>494.6808643105403</v>
+        <v>494.6808643105404</v>
       </c>
       <c r="P10" t="n">
         <v>557.6493480386781</v>
       </c>
       <c r="Q10" t="n">
-        <v>519.1120066923671</v>
+        <v>557.6493480386781</v>
       </c>
       <c r="R10" t="n">
-        <v>519.1120066923671</v>
+        <v>557.6493480386781</v>
       </c>
       <c r="S10" t="n">
-        <v>519.1120066923671</v>
+        <v>557.6493480386781</v>
       </c>
       <c r="T10" t="n">
-        <v>519.1120066923671</v>
+        <v>557.6493480386781</v>
       </c>
       <c r="U10" t="n">
-        <v>519.1120066923671</v>
+        <v>557.6493480386781</v>
       </c>
       <c r="V10" t="n">
-        <v>519.1120066923671</v>
+        <v>557.6493480386781</v>
       </c>
       <c r="W10" t="n">
-        <v>519.1120066923671</v>
+        <v>557.6493480386781</v>
       </c>
       <c r="X10" t="n">
-        <v>519.1120066923671</v>
+        <v>557.6493480386781</v>
       </c>
       <c r="Y10" t="n">
-        <v>519.1120066923671</v>
+        <v>557.6493480386781</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1890.634542281677</v>
+        <v>1529.741945182575</v>
       </c>
       <c r="C11" t="n">
-        <v>1598.193009878547</v>
+        <v>1529.741945182575</v>
       </c>
       <c r="D11" t="n">
-        <v>1314.861271369833</v>
+        <v>1246.410206673861</v>
       </c>
       <c r="E11" t="n">
-        <v>1009.567777740002</v>
+        <v>941.1167130440301</v>
       </c>
       <c r="F11" t="n">
-        <v>684.9088133142352</v>
+        <v>616.4577486182629</v>
       </c>
       <c r="G11" t="n">
-        <v>358.6828621974208</v>
+        <v>290.2317975014487</v>
       </c>
       <c r="H11" t="n">
-        <v>119.3049821691866</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I11" t="n">
         <v>50.85391747321462</v>
@@ -5045,7 +5045,7 @@
         <v>443.1860302481634</v>
       </c>
       <c r="L11" t="n">
-        <v>850.7433998907118</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M11" t="n">
         <v>1310.379159876956</v>
@@ -5072,19 +5072,19 @@
         <v>2320.572910515689</v>
       </c>
       <c r="U11" t="n">
-        <v>2195.185855535634</v>
+        <v>2320.572910515689</v>
       </c>
       <c r="V11" t="n">
-        <v>2195.185855535634</v>
+        <v>2320.572910515689</v>
       </c>
       <c r="W11" t="n">
-        <v>2195.185855535634</v>
+        <v>2047.530206637353</v>
       </c>
       <c r="X11" t="n">
-        <v>2195.185855535634</v>
+        <v>2047.530206637353</v>
       </c>
       <c r="Y11" t="n">
-        <v>2195.185855535634</v>
+        <v>1743.480577477253</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421045</v>
       </c>
       <c r="C12" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830592</v>
       </c>
       <c r="D12" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732713</v>
       </c>
       <c r="E12" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301425</v>
       </c>
       <c r="F12" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800169</v>
       </c>
       <c r="G12" t="n">
-        <v>210.0732042050868</v>
+        <v>210.0732042050874</v>
       </c>
       <c r="H12" t="n">
         <v>112.1289883137699</v>
@@ -5133,10 +5133,10 @@
         <v>1822.946479591694</v>
       </c>
       <c r="O12" t="n">
-        <v>2018.368674122672</v>
+        <v>2263.283082167001</v>
       </c>
       <c r="P12" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q12" t="n">
         <v>2542.695873660731</v>
@@ -5145,19 +5145,19 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S12" t="n">
-        <v>2346.762917934841</v>
+        <v>2346.762917934842</v>
       </c>
       <c r="T12" t="n">
-        <v>2158.909856151446</v>
+        <v>2158.909856151447</v>
       </c>
       <c r="U12" t="n">
-        <v>1940.428644414347</v>
+        <v>1940.428644414348</v>
       </c>
       <c r="V12" t="n">
-        <v>1712.033021862681</v>
+        <v>1712.033021862682</v>
       </c>
       <c r="W12" t="n">
-        <v>1470.717153095991</v>
+        <v>1470.717153095992</v>
       </c>
       <c r="X12" t="n">
         <v>1272.800164973786</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>374.0529965533199</v>
+        <v>252.0753483514617</v>
       </c>
       <c r="C13" t="n">
-        <v>374.0529965533199</v>
+        <v>171.9516050772046</v>
       </c>
       <c r="D13" t="n">
-        <v>310.4733296451451</v>
+        <v>171.9516050772046</v>
       </c>
       <c r="E13" t="n">
-        <v>247.9565416705263</v>
+        <v>171.9516050772046</v>
       </c>
       <c r="F13" t="n">
-        <v>247.9565416705263</v>
+        <v>108.9631763670442</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7020800118739</v>
+        <v>108.9631763670442</v>
       </c>
       <c r="H13" t="n">
-        <v>100.3603280900062</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I13" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J13" t="n">
-        <v>91.69505674979109</v>
+        <v>91.69505674979132</v>
       </c>
       <c r="K13" t="n">
-        <v>232.7169638270789</v>
+        <v>232.7169638270792</v>
       </c>
       <c r="L13" t="n">
-        <v>446.2527666318765</v>
+        <v>446.2527666318769</v>
       </c>
       <c r="M13" t="n">
-        <v>678.5458083128449</v>
+        <v>678.5458083128453</v>
       </c>
       <c r="N13" t="n">
-        <v>910.6354775381744</v>
+        <v>910.635477538175</v>
       </c>
       <c r="O13" t="n">
-        <v>1120.785018876022</v>
+        <v>1120.785018876023</v>
       </c>
       <c r="P13" t="n">
-        <v>1291.979214699443</v>
+        <v>1291.979214699444</v>
       </c>
       <c r="Q13" t="n">
-        <v>1356.12319156128</v>
+        <v>1356.123191561281</v>
       </c>
       <c r="R13" t="n">
-        <v>1303.875075247595</v>
+        <v>1356.123191561281</v>
       </c>
       <c r="S13" t="n">
-        <v>1182.673515097047</v>
+        <v>1234.921631410733</v>
       </c>
       <c r="T13" t="n">
-        <v>1039.726229389829</v>
+        <v>1091.974345703515</v>
       </c>
       <c r="U13" t="n">
-        <v>842.0376558180512</v>
+        <v>894.2857721317372</v>
       </c>
       <c r="V13" t="n">
-        <v>797.3232467358364</v>
+        <v>723.0426939542223</v>
       </c>
       <c r="W13" t="n">
-        <v>600.6590715172979</v>
+        <v>526.3785187356839</v>
       </c>
       <c r="X13" t="n">
-        <v>600.6590715172979</v>
+        <v>384.6182808951221</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.1161389736374</v>
+        <v>252.0753483514617</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1314.861271369833</v>
+        <v>1598.193009878546</v>
       </c>
       <c r="C14" t="n">
-        <v>1314.861271369833</v>
+        <v>1598.193009878546</v>
       </c>
       <c r="D14" t="n">
         <v>1314.861271369833</v>
@@ -5264,25 +5264,25 @@
         <v>1009.567777740002</v>
       </c>
       <c r="F14" t="n">
-        <v>684.908813314235</v>
+        <v>684.9088133142347</v>
       </c>
       <c r="G14" t="n">
-        <v>358.6828621974208</v>
+        <v>358.6828621974205</v>
       </c>
       <c r="H14" t="n">
-        <v>119.3049821691866</v>
+        <v>119.3049821691864</v>
       </c>
       <c r="I14" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J14" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K14" t="n">
-        <v>443.1860302481632</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L14" t="n">
-        <v>850.7433998907119</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M14" t="n">
         <v>1310.379159876956</v>
@@ -5303,25 +5303,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S14" t="n">
-        <v>2453.750750901111</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T14" t="n">
-        <v>2320.572910515689</v>
+        <v>2479.836656170939</v>
       </c>
       <c r="U14" t="n">
-        <v>2155.21066522694</v>
+        <v>2479.836656170939</v>
       </c>
       <c r="V14" t="n">
-        <v>2155.21066522694</v>
+        <v>2479.836656170939</v>
       </c>
       <c r="W14" t="n">
-        <v>2155.21066522694</v>
+        <v>2206.793952292603</v>
       </c>
       <c r="X14" t="n">
-        <v>1923.462213783889</v>
+        <v>2206.793952292603</v>
       </c>
       <c r="Y14" t="n">
-        <v>1619.412584623789</v>
+        <v>1902.744323132503</v>
       </c>
     </row>
     <row r="15">
@@ -5358,7 +5358,7 @@
         <v>130.2226992162549</v>
       </c>
       <c r="K15" t="n">
-        <v>392.3832078845233</v>
+        <v>392.3832078845234</v>
       </c>
       <c r="L15" t="n">
         <v>802.1338407649491</v>
@@ -5367,7 +5367,7 @@
         <v>1338.430017546049</v>
       </c>
       <c r="N15" t="n">
-        <v>1902.315261334734</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O15" t="n">
         <v>2018.368674122672</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>310.4733296451456</v>
+        <v>384.6182808951226</v>
       </c>
       <c r="C16" t="n">
-        <v>310.4733296451456</v>
+        <v>304.4945376208653</v>
       </c>
       <c r="D16" t="n">
-        <v>310.4733296451456</v>
+        <v>304.4945376208653</v>
       </c>
       <c r="E16" t="n">
-        <v>247.9565416705266</v>
+        <v>261.438559763895</v>
       </c>
       <c r="F16" t="n">
-        <v>247.9565416705266</v>
+        <v>198.4501310537346</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7020800118739</v>
+        <v>119.1956693950823</v>
       </c>
       <c r="H16" t="n">
-        <v>100.3603280900061</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I16" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J16" t="n">
-        <v>91.69505674979135</v>
+        <v>91.69505674979143</v>
       </c>
       <c r="K16" t="n">
-        <v>232.7169638270792</v>
+        <v>232.7169638270794</v>
       </c>
       <c r="L16" t="n">
-        <v>446.2527666318768</v>
+        <v>446.252766631877</v>
       </c>
       <c r="M16" t="n">
-        <v>678.5458083128452</v>
+        <v>678.5458083128456</v>
       </c>
       <c r="N16" t="n">
-        <v>910.6354775381749</v>
+        <v>910.6354775381752</v>
       </c>
       <c r="O16" t="n">
         <v>1120.785018876023</v>
       </c>
       <c r="P16" t="n">
-        <v>1291.979214699444</v>
+        <v>1291.979214699445</v>
       </c>
       <c r="Q16" t="n">
-        <v>1356.123191561281</v>
+        <v>1356.123191561282</v>
       </c>
       <c r="R16" t="n">
-        <v>1303.875075247596</v>
+        <v>1356.123191561282</v>
       </c>
       <c r="S16" t="n">
-        <v>1293.319612704416</v>
+        <v>1234.921631410733</v>
       </c>
       <c r="T16" t="n">
-        <v>1150.372326997199</v>
+        <v>1091.974345703515</v>
       </c>
       <c r="U16" t="n">
-        <v>952.6837534254211</v>
+        <v>894.2857721317375</v>
       </c>
       <c r="V16" t="n">
-        <v>781.4406752479061</v>
+        <v>723.0426939542226</v>
       </c>
       <c r="W16" t="n">
-        <v>584.7765000293678</v>
+        <v>526.3785187356842</v>
       </c>
       <c r="X16" t="n">
-        <v>443.016262188806</v>
+        <v>384.6182808951226</v>
       </c>
       <c r="Y16" t="n">
-        <v>310.4733296451456</v>
+        <v>384.6182808951226</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>1355.622868711878</v>
       </c>
       <c r="C17" t="n">
-        <v>1140.94143778772</v>
+        <v>1140.941437787719</v>
       </c>
       <c r="D17" t="n">
-        <v>935.3698007579769</v>
+        <v>935.3698007579759</v>
       </c>
       <c r="E17" t="n">
-        <v>707.8364086071176</v>
+        <v>707.8364086071165</v>
       </c>
       <c r="F17" t="n">
-        <v>460.9375456603204</v>
+        <v>460.9375456603205</v>
       </c>
       <c r="G17" t="n">
-        <v>212.4716960224775</v>
+        <v>212.4716960224776</v>
       </c>
       <c r="H17" t="n">
         <v>50.85391747321462</v>
@@ -5513,13 +5513,13 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J17" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K17" t="n">
         <v>443.1860302481634</v>
       </c>
       <c r="L17" t="n">
-        <v>850.7433998907119</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M17" t="n">
         <v>1310.379159876956</v>
@@ -5540,7 +5540,7 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S17" t="n">
-        <v>2531.510852380083</v>
+        <v>2531.510852380082</v>
       </c>
       <c r="T17" t="n">
         <v>2476.093113473632</v>
@@ -5552,13 +5552,13 @@
         <v>2218.76402330283</v>
       </c>
       <c r="W17" t="n">
-        <v>2023.481420903465</v>
+        <v>2023.481420903464</v>
       </c>
       <c r="X17" t="n">
-        <v>1808.703608167992</v>
+        <v>1808.703608167991</v>
       </c>
       <c r="Y17" t="n">
-        <v>1582.414080486864</v>
+        <v>1582.414080486863</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>920.8593958421045</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C18" t="n">
-        <v>759.1557230830592</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D18" t="n">
-        <v>620.3170860732713</v>
+        <v>620.3170860732707</v>
       </c>
       <c r="E18" t="n">
-        <v>473.2890761301425</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F18" t="n">
-        <v>338.5952780800169</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G18" t="n">
         <v>210.0732042050868</v>
@@ -5595,13 +5595,13 @@
         <v>130.2226992162549</v>
       </c>
       <c r="K18" t="n">
-        <v>392.3832078845233</v>
+        <v>392.3832078845234</v>
       </c>
       <c r="L18" t="n">
         <v>802.1338407649491</v>
       </c>
       <c r="M18" t="n">
-        <v>1338.430017546049</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N18" t="n">
         <v>1578.032071547365</v>
@@ -5619,19 +5619,19 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S18" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T18" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U18" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V18" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W18" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X18" t="n">
         <v>1272.800164973786</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.7119194481816</v>
+        <v>54.71191944818177</v>
       </c>
       <c r="C19" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289577</v>
       </c>
       <c r="D19" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289577</v>
       </c>
       <c r="E19" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289577</v>
       </c>
       <c r="F19" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289577</v>
       </c>
       <c r="G19" t="n">
         <v>50.85391747321462</v>
@@ -5695,28 +5695,28 @@
         <v>724.8700896544216</v>
       </c>
       <c r="R19" t="n">
-        <v>724.8700896544216</v>
+        <v>630.7420932465487</v>
       </c>
       <c r="S19" t="n">
-        <v>681.4286309828443</v>
+        <v>587.3006345749714</v>
       </c>
       <c r="T19" t="n">
-        <v>616.241446754598</v>
+        <v>522.1134503467249</v>
       </c>
       <c r="U19" t="n">
-        <v>496.3129746617917</v>
+        <v>402.1849782539185</v>
       </c>
       <c r="V19" t="n">
-        <v>308.7020015553743</v>
+        <v>308.7020015553748</v>
       </c>
       <c r="W19" t="n">
-        <v>189.7979278158072</v>
+        <v>189.7979278158076</v>
       </c>
       <c r="X19" t="n">
-        <v>125.7977914542167</v>
+        <v>125.7977914542171</v>
       </c>
       <c r="Y19" t="n">
-        <v>71.01496038952763</v>
+        <v>71.01496038952789</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1355.622868711877</v>
+        <v>1355.622868711878</v>
       </c>
       <c r="C20" t="n">
-        <v>1140.941437787718</v>
+        <v>1140.941437787719</v>
       </c>
       <c r="D20" t="n">
-        <v>935.3698007579756</v>
+        <v>935.3698007579759</v>
       </c>
       <c r="E20" t="n">
-        <v>707.836408607116</v>
+        <v>707.8364086071165</v>
       </c>
       <c r="F20" t="n">
-        <v>460.9375456603204</v>
+        <v>460.9375456603205</v>
       </c>
       <c r="G20" t="n">
-        <v>212.4716960224775</v>
+        <v>212.4716960224776</v>
       </c>
       <c r="H20" t="n">
         <v>50.85391747321462</v>
@@ -5777,7 +5777,7 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S20" t="n">
-        <v>2531.510852380083</v>
+        <v>2531.510852380082</v>
       </c>
       <c r="T20" t="n">
         <v>2476.093113473632</v>
@@ -5786,16 +5786,16 @@
         <v>2388.490969663854</v>
       </c>
       <c r="V20" t="n">
-        <v>2218.764023302829</v>
+        <v>2218.76402330283</v>
       </c>
       <c r="W20" t="n">
-        <v>2023.481420903463</v>
+        <v>2023.481420903465</v>
       </c>
       <c r="X20" t="n">
         <v>1808.703608167991</v>
       </c>
       <c r="Y20" t="n">
-        <v>1582.414080486862</v>
+        <v>1582.414080486863</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>210.0732042050874</v>
       </c>
       <c r="H21" t="n">
-        <v>112.1289883137699</v>
+        <v>112.1289883137705</v>
       </c>
       <c r="I21" t="n">
         <v>50.85391747321462</v>
@@ -5841,13 +5841,13 @@
         <v>1338.430017546049</v>
       </c>
       <c r="N21" t="n">
-        <v>1761.629444945137</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O21" t="n">
-        <v>2201.966047520445</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P21" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q21" t="n">
         <v>2542.695873660731</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.7119194481816</v>
+        <v>54.71191944818177</v>
       </c>
       <c r="C22" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289577</v>
       </c>
       <c r="D22" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289577</v>
       </c>
       <c r="E22" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289577</v>
       </c>
       <c r="F22" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289577</v>
       </c>
       <c r="G22" t="n">
         <v>50.85391747321462</v>
@@ -5917,7 +5917,7 @@
         <v>229.9889654324849</v>
       </c>
       <c r="M22" t="n">
-        <v>374.5706761520457</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N22" t="n">
         <v>518.9490144159677</v>
@@ -5932,28 +5932,28 @@
         <v>724.8700896544216</v>
       </c>
       <c r="R22" t="n">
-        <v>724.8700896544216</v>
+        <v>630.7420932465487</v>
       </c>
       <c r="S22" t="n">
-        <v>587.3006345749704</v>
+        <v>587.3006345749714</v>
       </c>
       <c r="T22" t="n">
-        <v>522.1134503467241</v>
+        <v>522.1134503467249</v>
       </c>
       <c r="U22" t="n">
-        <v>402.1849782539179</v>
+        <v>402.1849782539185</v>
       </c>
       <c r="V22" t="n">
-        <v>308.7020015553743</v>
+        <v>308.7020015553748</v>
       </c>
       <c r="W22" t="n">
-        <v>189.7979278158072</v>
+        <v>189.7979278158076</v>
       </c>
       <c r="X22" t="n">
-        <v>125.7977914542167</v>
+        <v>125.7977914542171</v>
       </c>
       <c r="Y22" t="n">
-        <v>71.01496038952763</v>
+        <v>71.01496038952789</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1355.622868711878</v>
+        <v>1355.622868711877</v>
       </c>
       <c r="C23" t="n">
         <v>1140.941437787719</v>
       </c>
       <c r="D23" t="n">
-        <v>935.3698007579765</v>
+        <v>935.3698007579758</v>
       </c>
       <c r="E23" t="n">
-        <v>707.8364086071172</v>
+        <v>707.8364086071164</v>
       </c>
       <c r="F23" t="n">
-        <v>460.9375456603211</v>
+        <v>460.9375456603204</v>
       </c>
       <c r="G23" t="n">
-        <v>212.4716960224775</v>
+        <v>212.4716960224776</v>
       </c>
       <c r="H23" t="n">
         <v>50.85391747321462</v>
@@ -5987,7 +5987,7 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J23" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532638</v>
       </c>
       <c r="K23" t="n">
         <v>443.1860302481634</v>
@@ -5999,7 +5999,7 @@
         <v>1310.379159876956</v>
       </c>
       <c r="N23" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O23" t="n">
         <v>2124.896977382889</v>
@@ -6014,22 +6014,22 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S23" t="n">
-        <v>2531.510852380083</v>
+        <v>2531.510852380082</v>
       </c>
       <c r="T23" t="n">
         <v>2476.093113473632</v>
       </c>
       <c r="U23" t="n">
-        <v>2388.490969663855</v>
+        <v>2388.490969663854</v>
       </c>
       <c r="V23" t="n">
-        <v>2218.76402330283</v>
+        <v>2218.764023302829</v>
       </c>
       <c r="W23" t="n">
-        <v>2023.481420903465</v>
+        <v>2023.481420903464</v>
       </c>
       <c r="X23" t="n">
-        <v>1808.703608167992</v>
+        <v>1808.703608167991</v>
       </c>
       <c r="Y23" t="n">
         <v>1582.414080486863</v>
@@ -6057,7 +6057,7 @@
         <v>338.5952780800162</v>
       </c>
       <c r="G24" t="n">
-        <v>210.0732042050868</v>
+        <v>210.0732042050869</v>
       </c>
       <c r="H24" t="n">
         <v>112.1289883137699</v>
@@ -6069,7 +6069,7 @@
         <v>130.2226992162549</v>
       </c>
       <c r="K24" t="n">
-        <v>392.3832078845233</v>
+        <v>392.3832078845234</v>
       </c>
       <c r="L24" t="n">
         <v>802.1338407649491</v>
@@ -6078,13 +6078,13 @@
         <v>1338.430017546049</v>
       </c>
       <c r="N24" t="n">
-        <v>1761.629444945137</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O24" t="n">
-        <v>2201.966047520445</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P24" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q24" t="n">
         <v>2542.695873660731</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.7119194481816</v>
+        <v>54.71191944818171</v>
       </c>
       <c r="C25" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="D25" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="E25" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="F25" t="n">
-        <v>52.34827765289568</v>
+        <v>52.34827765289574</v>
       </c>
       <c r="G25" t="n">
         <v>50.85391747321462</v>
@@ -6172,25 +6172,25 @@
         <v>724.8700896544216</v>
       </c>
       <c r="S25" t="n">
-        <v>587.3006345749704</v>
+        <v>681.4286309828442</v>
       </c>
       <c r="T25" t="n">
-        <v>522.1134503467241</v>
+        <v>616.2414467545977</v>
       </c>
       <c r="U25" t="n">
-        <v>402.1849782539179</v>
+        <v>402.1849782539183</v>
       </c>
       <c r="V25" t="n">
-        <v>308.7020015553743</v>
+        <v>308.7020015553746</v>
       </c>
       <c r="W25" t="n">
-        <v>189.7979278158072</v>
+        <v>189.7979278158075</v>
       </c>
       <c r="X25" t="n">
-        <v>125.7977914542167</v>
+        <v>125.797791454217</v>
       </c>
       <c r="Y25" t="n">
-        <v>71.01496038952763</v>
+        <v>71.0149603895278</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1781.512829068194</v>
+        <v>1781.512829068195</v>
       </c>
       <c r="C26" t="n">
-        <v>1507.23905206412</v>
+        <v>1507.239052064121</v>
       </c>
       <c r="D26" t="n">
-        <v>1242.075068954463</v>
+        <v>1242.075068954464</v>
       </c>
       <c r="E26" t="n">
-        <v>954.9493307236887</v>
+        <v>954.9493307236899</v>
       </c>
       <c r="F26" t="n">
-        <v>648.458121696978</v>
+        <v>648.4581216969792</v>
       </c>
       <c r="G26" t="n">
         <v>340.3999259792201</v>
       </c>
       <c r="H26" t="n">
-        <v>119.1898013500425</v>
+        <v>119.1898013500426</v>
       </c>
       <c r="I26" t="n">
         <v>68.90649205312728</v>
       </c>
       <c r="J26" t="n">
-        <v>278.5160280611989</v>
+        <v>278.5160280611992</v>
       </c>
       <c r="K26" t="n">
-        <v>672.2737008841218</v>
+        <v>672.273700884122</v>
       </c>
       <c r="L26" t="n">
-        <v>1185.348618554693</v>
+        <v>1185.348618554694</v>
       </c>
       <c r="M26" t="n">
         <v>1750.501926568961</v>
@@ -6251,16 +6251,16 @@
         <v>3445.324602656364</v>
       </c>
       <c r="S26" t="n">
-        <v>3374.547235295801</v>
+        <v>3374.547235295802</v>
       </c>
       <c r="T26" t="n">
-        <v>3259.537150309436</v>
+        <v>3259.537150309437</v>
       </c>
       <c r="U26" t="n">
         <v>3112.342660419744</v>
       </c>
       <c r="V26" t="n">
-        <v>2883.023367978804</v>
+        <v>2883.023367978805</v>
       </c>
       <c r="W26" t="n">
         <v>2628.148419499525</v>
@@ -6269,7 +6269,7 @@
         <v>2353.778260684137</v>
       </c>
       <c r="Y26" t="n">
-        <v>2067.896386923094</v>
+        <v>2067.896386923095</v>
       </c>
     </row>
     <row r="27">
@@ -6303,16 +6303,16 @@
         <v>68.90649205312728</v>
       </c>
       <c r="J27" t="n">
-        <v>68.90649205312728</v>
+        <v>148.2752737961676</v>
       </c>
       <c r="K27" t="n">
-        <v>331.0670007213957</v>
+        <v>410.435782464436</v>
       </c>
       <c r="L27" t="n">
-        <v>740.8176336018214</v>
+        <v>820.1864153448618</v>
       </c>
       <c r="M27" t="n">
-        <v>1215.796775736365</v>
+        <v>1356.482592125962</v>
       </c>
       <c r="N27" t="n">
         <v>1779.68201952505</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>408.0434553242537</v>
+        <v>408.0434553242539</v>
       </c>
       <c r="C28" t="n">
-        <v>346.0874674490531</v>
+        <v>346.0874674490532</v>
       </c>
       <c r="D28" t="n">
-        <v>300.6755559399349</v>
+        <v>300.675555939935</v>
       </c>
       <c r="E28" t="n">
-        <v>256.3265233643728</v>
+        <v>256.3265233643729</v>
       </c>
       <c r="F28" t="n">
-        <v>211.505850053269</v>
+        <v>211.5058500532691</v>
       </c>
       <c r="G28" t="n">
-        <v>150.4191437936732</v>
+        <v>150.4191437936733</v>
       </c>
       <c r="H28" t="n">
         <v>100.2451472708622</v>
@@ -6382,22 +6382,22 @@
         <v>68.90649205312728</v>
       </c>
       <c r="J28" t="n">
-        <v>127.5538483963194</v>
+        <v>105.8211043987694</v>
       </c>
       <c r="K28" t="n">
-        <v>286.3819725402227</v>
+        <v>264.6492285426726</v>
       </c>
       <c r="L28" t="n">
-        <v>517.7239924116357</v>
+        <v>495.9912484140856</v>
       </c>
       <c r="M28" t="n">
-        <v>767.8232511592195</v>
+        <v>746.0905071616694</v>
       </c>
       <c r="N28" t="n">
-        <v>995.9863934536137</v>
+        <v>995.9863934536144</v>
       </c>
       <c r="O28" t="n">
-        <v>1223.942151858077</v>
+        <v>1223.942151858078</v>
       </c>
       <c r="P28" t="n">
         <v>1412.942564748114</v>
@@ -6412,22 +6412,22 @@
         <v>1357.778593010446</v>
       </c>
       <c r="T28" t="n">
-        <v>1232.999062702284</v>
+        <v>1232.999062702285</v>
       </c>
       <c r="U28" t="n">
-        <v>1053.478244529563</v>
+        <v>1053.478244529564</v>
       </c>
       <c r="V28" t="n">
-        <v>900.4029217511052</v>
+        <v>900.4029217511056</v>
       </c>
       <c r="W28" t="n">
-        <v>721.9065019316233</v>
+        <v>721.9065019316238</v>
       </c>
       <c r="X28" t="n">
-        <v>598.3140194901182</v>
+        <v>598.3140194901185</v>
       </c>
       <c r="Y28" t="n">
-        <v>483.9388423455144</v>
+        <v>483.9388423455147</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1781.512829068193</v>
+        <v>1781.512829068194</v>
       </c>
       <c r="C29" t="n">
-        <v>1507.239052064119</v>
+        <v>1507.23905206412</v>
       </c>
       <c r="D29" t="n">
         <v>1242.075068954462</v>
       </c>
       <c r="E29" t="n">
-        <v>954.9493307236876</v>
+        <v>954.9493307236885</v>
       </c>
       <c r="F29" t="n">
-        <v>648.4581216969771</v>
+        <v>648.4581216969779</v>
       </c>
       <c r="G29" t="n">
-        <v>340.3999259792195</v>
+        <v>340.3999259792202</v>
       </c>
       <c r="H29" t="n">
-        <v>119.1898013500427</v>
+        <v>119.1898013500426</v>
       </c>
       <c r="I29" t="n">
         <v>68.90649205312728</v>
       </c>
       <c r="J29" t="n">
-        <v>278.5160280611989</v>
+        <v>278.5160280611993</v>
       </c>
       <c r="K29" t="n">
-        <v>672.2737008841218</v>
+        <v>672.2737008841221</v>
       </c>
       <c r="L29" t="n">
         <v>1185.348618554693</v>
@@ -6482,7 +6482,7 @@
         <v>3164.105075974609</v>
       </c>
       <c r="Q29" t="n">
-        <v>3404.888832464828</v>
+        <v>3404.888832464827</v>
       </c>
       <c r="R29" t="n">
         <v>3445.324602656364</v>
@@ -6503,10 +6503,10 @@
         <v>2628.148419499524</v>
       </c>
       <c r="X29" t="n">
-        <v>2353.778260684136</v>
+        <v>2353.778260684137</v>
       </c>
       <c r="Y29" t="n">
-        <v>2067.896386923093</v>
+        <v>2067.896386923094</v>
       </c>
     </row>
     <row r="30">
@@ -6540,16 +6540,16 @@
         <v>68.90649205312728</v>
       </c>
       <c r="J30" t="n">
-        <v>148.2752737961676</v>
+        <v>68.90649205312728</v>
       </c>
       <c r="K30" t="n">
-        <v>410.435782464436</v>
+        <v>331.0670007213957</v>
       </c>
       <c r="L30" t="n">
-        <v>820.1864153448618</v>
+        <v>740.8176336018214</v>
       </c>
       <c r="M30" t="n">
-        <v>1356.482592125962</v>
+        <v>1032.199402338592</v>
       </c>
       <c r="N30" t="n">
         <v>1596.084646127277</v>
@@ -6680,13 +6680,13 @@
         <v>1140.941437787719</v>
       </c>
       <c r="D32" t="n">
-        <v>935.3698007579761</v>
+        <v>935.3698007579766</v>
       </c>
       <c r="E32" t="n">
-        <v>707.8364086071168</v>
+        <v>707.8364086071173</v>
       </c>
       <c r="F32" t="n">
-        <v>460.9375456603209</v>
+        <v>460.9375456603215</v>
       </c>
       <c r="G32" t="n">
         <v>212.4716960224775</v>
@@ -6695,7 +6695,7 @@
         <v>50.85391747321462</v>
       </c>
       <c r="I32" t="n">
-        <v>50.85391747321484</v>
+        <v>50.85391747321482</v>
       </c>
       <c r="J32" t="n">
         <v>154.9459054532638</v>
@@ -6731,16 +6731,16 @@
         <v>2476.093113473632</v>
       </c>
       <c r="U32" t="n">
-        <v>2388.490969663854</v>
+        <v>2388.490969663855</v>
       </c>
       <c r="V32" t="n">
-        <v>2218.764023302829</v>
+        <v>2218.76402330283</v>
       </c>
       <c r="W32" t="n">
-        <v>2023.481420903464</v>
+        <v>2023.481420903465</v>
       </c>
       <c r="X32" t="n">
-        <v>1808.703608167991</v>
+        <v>1808.703608167992</v>
       </c>
       <c r="Y32" t="n">
         <v>1582.414080486863</v>
@@ -6768,7 +6768,7 @@
         <v>338.5952780800167</v>
       </c>
       <c r="G33" t="n">
-        <v>210.0732042050872</v>
+        <v>210.0732042050869</v>
       </c>
       <c r="H33" t="n">
         <v>112.1289883137699</v>
@@ -6783,19 +6783,19 @@
         <v>313.014426141483</v>
       </c>
       <c r="L33" t="n">
-        <v>722.7650590219088</v>
+        <v>661.4480243753522</v>
       </c>
       <c r="M33" t="n">
-        <v>1259.061235803009</v>
+        <v>1197.744201156453</v>
       </c>
       <c r="N33" t="n">
-        <v>1822.946479591694</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O33" t="n">
-        <v>2263.283082167001</v>
+        <v>2201.966047520445</v>
       </c>
       <c r="P33" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q33" t="n">
         <v>2542.695873660731</v>
@@ -6883,7 +6883,7 @@
         <v>724.8700896544216</v>
       </c>
       <c r="S34" t="n">
-        <v>681.4286309828443</v>
+        <v>587.3006345749703</v>
       </c>
       <c r="T34" t="n">
         <v>522.113450346724</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1355.622868711878</v>
+        <v>1355.622868711877</v>
       </c>
       <c r="C35" t="n">
-        <v>1140.941437787719</v>
+        <v>1140.941437787718</v>
       </c>
       <c r="D35" t="n">
-        <v>935.3698007579761</v>
+        <v>935.3698007579756</v>
       </c>
       <c r="E35" t="n">
-        <v>707.8364086071167</v>
+        <v>707.836408607116</v>
       </c>
       <c r="F35" t="n">
-        <v>460.9375456603209</v>
+        <v>460.9375456603207</v>
       </c>
       <c r="G35" t="n">
         <v>212.4716960224776</v>
@@ -6932,22 +6932,22 @@
         <v>50.85391747321462</v>
       </c>
       <c r="I35" t="n">
-        <v>50.85391747321484</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J35" t="n">
-        <v>154.9459054532638</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K35" t="n">
-        <v>443.1860302481636</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L35" t="n">
-        <v>850.7433998907121</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M35" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N35" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O35" t="n">
         <v>2124.896977382889</v>
@@ -6962,16 +6962,16 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S35" t="n">
-        <v>2531.510852380083</v>
+        <v>2531.510852380082</v>
       </c>
       <c r="T35" t="n">
         <v>2476.093113473632</v>
       </c>
       <c r="U35" t="n">
-        <v>2388.490969663855</v>
+        <v>2388.490969663854</v>
       </c>
       <c r="V35" t="n">
-        <v>2218.76402330283</v>
+        <v>2218.764023302829</v>
       </c>
       <c r="W35" t="n">
         <v>2023.481420903464</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>920.8593958421042</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C36" t="n">
-        <v>759.155723083059</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D36" t="n">
-        <v>620.3170860732712</v>
+        <v>620.3170860732707</v>
       </c>
       <c r="E36" t="n">
-        <v>473.2890761301423</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F36" t="n">
-        <v>338.5952780800167</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G36" t="n">
-        <v>210.0732042050872</v>
+        <v>210.0732042050868</v>
       </c>
       <c r="H36" t="n">
         <v>112.1289883137699</v>
@@ -7017,10 +7017,10 @@
         <v>130.2226992162549</v>
       </c>
       <c r="K36" t="n">
-        <v>392.3832078845233</v>
+        <v>392.3832078845234</v>
       </c>
       <c r="L36" t="n">
-        <v>802.1338407649491</v>
+        <v>477.8506509775798</v>
       </c>
       <c r="M36" t="n">
         <v>1014.14682775868</v>
@@ -7041,19 +7041,19 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S36" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T36" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U36" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V36" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W36" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X36" t="n">
         <v>1272.800164973786</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.71191944818171</v>
+        <v>148.8399158560548</v>
       </c>
       <c r="C37" t="n">
-        <v>52.34827765289574</v>
+        <v>146.4762740607688</v>
       </c>
       <c r="D37" t="n">
-        <v>52.34827765289574</v>
+        <v>146.4762740607688</v>
       </c>
       <c r="E37" t="n">
-        <v>52.34827765289574</v>
+        <v>146.4762740607688</v>
       </c>
       <c r="F37" t="n">
         <v>52.34827765289574</v>
@@ -7120,25 +7120,25 @@
         <v>724.8700896544216</v>
       </c>
       <c r="S37" t="n">
-        <v>587.300634574971</v>
+        <v>681.4286309828442</v>
       </c>
       <c r="T37" t="n">
-        <v>522.1134503467246</v>
+        <v>616.2414467545977</v>
       </c>
       <c r="U37" t="n">
-        <v>402.1849782539183</v>
+        <v>496.3129746617914</v>
       </c>
       <c r="V37" t="n">
-        <v>308.7020015553746</v>
+        <v>402.8299979632478</v>
       </c>
       <c r="W37" t="n">
-        <v>189.7979278158075</v>
+        <v>283.9259242236806</v>
       </c>
       <c r="X37" t="n">
-        <v>125.797791454217</v>
+        <v>219.9257878620901</v>
       </c>
       <c r="Y37" t="n">
-        <v>71.0149603895278</v>
+        <v>165.1429567974009</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1355.622868711877</v>
+        <v>1355.622868711878</v>
       </c>
       <c r="C38" t="n">
-        <v>1140.941437787718</v>
+        <v>1140.941437787719</v>
       </c>
       <c r="D38" t="n">
-        <v>935.3698007579751</v>
+        <v>935.369800757976</v>
       </c>
       <c r="E38" t="n">
-        <v>707.8364086071157</v>
+        <v>707.8364086071167</v>
       </c>
       <c r="F38" t="n">
-        <v>460.9375456603198</v>
+        <v>460.9375456603208</v>
       </c>
       <c r="G38" t="n">
-        <v>212.4716960224776</v>
+        <v>212.4716960224775</v>
       </c>
       <c r="H38" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="I38" t="n">
-        <v>50.85391747321484</v>
+        <v>50.85391747321482</v>
       </c>
       <c r="J38" t="n">
         <v>154.9459054532638</v>
@@ -7199,7 +7199,7 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S38" t="n">
-        <v>2531.510852380082</v>
+        <v>2531.510852380083</v>
       </c>
       <c r="T38" t="n">
         <v>2476.093113473632</v>
@@ -7211,13 +7211,13 @@
         <v>2218.764023302829</v>
       </c>
       <c r="W38" t="n">
-        <v>2023.481420903463</v>
+        <v>2023.481420903464</v>
       </c>
       <c r="X38" t="n">
-        <v>1808.70360816799</v>
+        <v>1808.703608167991</v>
       </c>
       <c r="Y38" t="n">
-        <v>1582.414080486862</v>
+        <v>1582.414080486863</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421037</v>
       </c>
       <c r="C39" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830585</v>
       </c>
       <c r="D39" t="n">
         <v>620.3170860732707</v>
@@ -7239,7 +7239,7 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F39" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800162</v>
       </c>
       <c r="G39" t="n">
         <v>210.0732042050868</v>
@@ -7254,13 +7254,13 @@
         <v>130.2226992162549</v>
       </c>
       <c r="K39" t="n">
-        <v>392.3832078845233</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="L39" t="n">
-        <v>802.1338407649491</v>
+        <v>539.9733320966807</v>
       </c>
       <c r="M39" t="n">
-        <v>1338.430017546049</v>
+        <v>1076.269508877781</v>
       </c>
       <c r="N39" t="n">
         <v>1578.032071547365</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>102.533765876945</v>
+        <v>54.71191944818154</v>
       </c>
       <c r="C40" t="n">
-        <v>100.170124081659</v>
+        <v>52.34827765289565</v>
       </c>
       <c r="D40" t="n">
-        <v>100.170124081659</v>
+        <v>52.34827765289565</v>
       </c>
       <c r="E40" t="n">
-        <v>100.170124081659</v>
+        <v>52.34827765289565</v>
       </c>
       <c r="F40" t="n">
-        <v>100.170124081659</v>
+        <v>52.34827765289565</v>
       </c>
       <c r="G40" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H40" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I40" t="n">
-        <v>98.67576390197789</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J40" t="n">
         <v>50.85391747321462</v>
@@ -7351,31 +7351,31 @@
         <v>724.8700896544216</v>
       </c>
       <c r="Q40" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R40" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S40" t="n">
-        <v>657.3827641329608</v>
+        <v>681.4286309828443</v>
       </c>
       <c r="T40" t="n">
-        <v>592.1955799047144</v>
+        <v>616.241446754598</v>
       </c>
       <c r="U40" t="n">
-        <v>472.267107811908</v>
+        <v>496.3129746617918</v>
       </c>
       <c r="V40" t="n">
-        <v>378.7841311133644</v>
+        <v>402.8299979632482</v>
       </c>
       <c r="W40" t="n">
-        <v>259.8800573737972</v>
+        <v>283.9259242236811</v>
       </c>
       <c r="X40" t="n">
-        <v>195.8799210122067</v>
+        <v>219.9257878620907</v>
       </c>
       <c r="Y40" t="n">
-        <v>118.8368068182911</v>
+        <v>71.01496038952754</v>
       </c>
     </row>
     <row r="41">
@@ -7391,22 +7391,22 @@
         <v>1140.941437787719</v>
       </c>
       <c r="D41" t="n">
-        <v>935.369800757976</v>
+        <v>935.3698007579762</v>
       </c>
       <c r="E41" t="n">
-        <v>707.8364086071166</v>
+        <v>707.8364086071168</v>
       </c>
       <c r="F41" t="n">
-        <v>460.9375456603207</v>
+        <v>460.9375456603211</v>
       </c>
       <c r="G41" t="n">
-        <v>212.4716960224776</v>
+        <v>212.4716960224775</v>
       </c>
       <c r="H41" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="I41" t="n">
-        <v>50.85391747321484</v>
+        <v>50.85391747321482</v>
       </c>
       <c r="J41" t="n">
         <v>154.9459054532638</v>
@@ -7436,16 +7436,16 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S41" t="n">
-        <v>2531.510852380082</v>
+        <v>2531.510852380083</v>
       </c>
       <c r="T41" t="n">
         <v>2476.093113473632</v>
       </c>
       <c r="U41" t="n">
-        <v>2388.490969663855</v>
+        <v>2388.490969663854</v>
       </c>
       <c r="V41" t="n">
-        <v>2218.76402330283</v>
+        <v>2218.764023302829</v>
       </c>
       <c r="W41" t="n">
         <v>2023.481420903464</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>920.8593958421042</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C42" t="n">
-        <v>759.155723083059</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D42" t="n">
-        <v>620.3170860732712</v>
+        <v>620.3170860732707</v>
       </c>
       <c r="E42" t="n">
-        <v>473.2890761301423</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F42" t="n">
-        <v>338.5952780800167</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G42" t="n">
         <v>210.0732042050868</v>
@@ -7491,7 +7491,7 @@
         <v>130.2226992162549</v>
       </c>
       <c r="K42" t="n">
-        <v>392.3832078845233</v>
+        <v>392.3832078845234</v>
       </c>
       <c r="L42" t="n">
         <v>802.1338407649491</v>
@@ -7500,34 +7500,34 @@
         <v>1338.430017546049</v>
       </c>
       <c r="N42" t="n">
-        <v>1761.629444945137</v>
+        <v>1578.032071547364</v>
       </c>
       <c r="O42" t="n">
-        <v>2201.966047520445</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P42" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q42" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R42" t="n">
         <v>2495.728130619192</v>
       </c>
       <c r="S42" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T42" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U42" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V42" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W42" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X42" t="n">
         <v>1272.800164973786</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.71191944818171</v>
+        <v>148.8399158560555</v>
       </c>
       <c r="C43" t="n">
-        <v>52.34827765289574</v>
+        <v>146.4762740607696</v>
       </c>
       <c r="D43" t="n">
-        <v>52.34827765289574</v>
+        <v>146.4762740607696</v>
       </c>
       <c r="E43" t="n">
-        <v>52.34827765289574</v>
+        <v>146.4762740607696</v>
       </c>
       <c r="F43" t="n">
-        <v>52.34827765289574</v>
+        <v>146.4762740607696</v>
       </c>
       <c r="G43" t="n">
-        <v>50.85391747321462</v>
+        <v>144.9819138810886</v>
       </c>
       <c r="H43" t="n">
-        <v>50.85391747321462</v>
+        <v>144.9819138810886</v>
       </c>
       <c r="I43" t="n">
         <v>50.85391747321462</v>
@@ -7594,25 +7594,25 @@
         <v>724.8700896544216</v>
       </c>
       <c r="S43" t="n">
-        <v>681.4286309828442</v>
+        <v>681.4286309828443</v>
       </c>
       <c r="T43" t="n">
-        <v>522.1134503467246</v>
+        <v>616.241446754598</v>
       </c>
       <c r="U43" t="n">
-        <v>402.1849782539183</v>
+        <v>496.3129746617918</v>
       </c>
       <c r="V43" t="n">
-        <v>308.7020015553746</v>
+        <v>402.8299979632482</v>
       </c>
       <c r="W43" t="n">
-        <v>189.7979278158075</v>
+        <v>283.9259242236811</v>
       </c>
       <c r="X43" t="n">
-        <v>125.797791454217</v>
+        <v>219.9257878620907</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.0149603895278</v>
+        <v>165.1429567974016</v>
       </c>
     </row>
     <row r="44">
@@ -7628,70 +7628,70 @@
         <v>1140.941437787718</v>
       </c>
       <c r="D44" t="n">
-        <v>935.3698007579756</v>
+        <v>935.3698007579751</v>
       </c>
       <c r="E44" t="n">
-        <v>707.8364086071161</v>
+        <v>707.8364086071158</v>
       </c>
       <c r="F44" t="n">
-        <v>460.9375456603202</v>
+        <v>460.9375456603204</v>
       </c>
       <c r="G44" t="n">
-        <v>212.4716960224776</v>
+        <v>212.4716960224775</v>
       </c>
       <c r="H44" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321459</v>
       </c>
       <c r="I44" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321346</v>
       </c>
       <c r="J44" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532624</v>
       </c>
       <c r="K44" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481622</v>
       </c>
       <c r="L44" t="n">
-        <v>850.7433998907121</v>
+        <v>850.7433998907107</v>
       </c>
       <c r="M44" t="n">
-        <v>1310.379159876956</v>
+        <v>1310.379159876955</v>
       </c>
       <c r="N44" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599931</v>
       </c>
       <c r="O44" t="n">
-        <v>2124.896977382889</v>
+        <v>2124.896977382888</v>
       </c>
       <c r="P44" t="n">
-        <v>2407.429665198535</v>
+        <v>2407.429665198534</v>
       </c>
       <c r="Q44" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.695873660729</v>
       </c>
       <c r="R44" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.695873660729</v>
       </c>
       <c r="S44" t="n">
-        <v>2531.510852380082</v>
+        <v>2531.510852380081</v>
       </c>
       <c r="T44" t="n">
-        <v>2476.093113473632</v>
+        <v>2476.093113473631</v>
       </c>
       <c r="U44" t="n">
-        <v>2388.490969663854</v>
+        <v>2388.490969663853</v>
       </c>
       <c r="V44" t="n">
-        <v>2218.764023302829</v>
+        <v>2218.764023302828</v>
       </c>
       <c r="W44" t="n">
-        <v>2023.481420903464</v>
+        <v>2023.481420903463</v>
       </c>
       <c r="X44" t="n">
-        <v>1808.703608167991</v>
+        <v>1808.70360816799</v>
       </c>
       <c r="Y44" t="n">
-        <v>1582.414080486863</v>
+        <v>1582.414080486862</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>920.8593958421037</v>
+        <v>920.8593958421031</v>
       </c>
       <c r="C45" t="n">
-        <v>759.1557230830585</v>
+        <v>759.1557230830579</v>
       </c>
       <c r="D45" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732699</v>
       </c>
       <c r="E45" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301412</v>
       </c>
       <c r="F45" t="n">
-        <v>338.5952780800162</v>
+        <v>338.5952780800155</v>
       </c>
       <c r="G45" t="n">
-        <v>210.0732042050868</v>
+        <v>210.073204205086</v>
       </c>
       <c r="H45" t="n">
-        <v>112.1289883137699</v>
+        <v>112.1289883137692</v>
       </c>
       <c r="I45" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321459</v>
       </c>
       <c r="J45" t="n">
         <v>130.2226992162549</v>
@@ -7737,40 +7737,40 @@
         <v>1338.430017546049</v>
       </c>
       <c r="N45" t="n">
-        <v>1578.032071547365</v>
+        <v>1902.315261334734</v>
       </c>
       <c r="O45" t="n">
-        <v>2018.368674122672</v>
+        <v>2018.368674122671</v>
       </c>
       <c r="P45" t="n">
-        <v>2359.098500262959</v>
+        <v>2359.098500262957</v>
       </c>
       <c r="Q45" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.695873660729</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.728130619192</v>
+        <v>2495.728130619191</v>
       </c>
       <c r="S45" t="n">
         <v>2346.762917934841</v>
       </c>
       <c r="T45" t="n">
-        <v>2158.909856151446</v>
+        <v>2158.909856151445</v>
       </c>
       <c r="U45" t="n">
         <v>1940.428644414347</v>
       </c>
       <c r="V45" t="n">
-        <v>1712.033021862681</v>
+        <v>1712.03302186268</v>
       </c>
       <c r="W45" t="n">
-        <v>1470.717153095991</v>
+        <v>1470.71715309599</v>
       </c>
       <c r="X45" t="n">
-        <v>1272.800164973786</v>
+        <v>1272.800164973785</v>
       </c>
       <c r="Y45" t="n">
-        <v>1080.278838623365</v>
+        <v>1080.278838623364</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.71191944818171</v>
+        <v>124.794049006172</v>
       </c>
       <c r="C46" t="n">
-        <v>52.34827765289574</v>
+        <v>122.4304072108861</v>
       </c>
       <c r="D46" t="n">
-        <v>52.34827765289574</v>
+        <v>122.4304072108861</v>
       </c>
       <c r="E46" t="n">
-        <v>52.34827765289574</v>
+        <v>122.4304072108861</v>
       </c>
       <c r="F46" t="n">
-        <v>52.34827765289574</v>
+        <v>122.4304072108861</v>
       </c>
       <c r="G46" t="n">
-        <v>50.85391747321462</v>
+        <v>98.67576390197786</v>
       </c>
       <c r="H46" t="n">
-        <v>50.85391747321462</v>
+        <v>98.67576390197786</v>
       </c>
       <c r="I46" t="n">
-        <v>50.85391747321462</v>
+        <v>98.67576390197786</v>
       </c>
       <c r="J46" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321459</v>
       </c>
       <c r="K46" t="n">
         <v>104.1644935890949</v>
@@ -7825,31 +7825,31 @@
         <v>724.8700896544216</v>
       </c>
       <c r="Q46" t="n">
-        <v>724.8700896544216</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="R46" t="n">
-        <v>724.8700896544216</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="S46" t="n">
-        <v>681.4286309828442</v>
+        <v>657.3827641329608</v>
       </c>
       <c r="T46" t="n">
-        <v>616.2414467545977</v>
+        <v>592.1955799047145</v>
       </c>
       <c r="U46" t="n">
-        <v>496.3129746617914</v>
+        <v>472.2671078119083</v>
       </c>
       <c r="V46" t="n">
-        <v>402.8299979632478</v>
+        <v>378.7841311133647</v>
       </c>
       <c r="W46" t="n">
-        <v>283.9259242236806</v>
+        <v>259.8800573737976</v>
       </c>
       <c r="X46" t="n">
-        <v>219.9257878620901</v>
+        <v>195.8799210122071</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.0149603895278</v>
+        <v>141.097089947518</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>178.8230039740467</v>
+        <v>196.509471907972</v>
       </c>
       <c r="L2" t="n">
-        <v>209.2466800970395</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M2" t="n">
-        <v>281.375417157571</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N2" t="n">
-        <v>280.6172168326419</v>
+        <v>280.6172168326424</v>
       </c>
       <c r="O2" t="n">
-        <v>281.1738994405323</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P2" t="n">
-        <v>187.8768090511565</v>
+        <v>282.0959117115688</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>274.8424756834025</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8058,25 +8058,25 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>202.4084393963548</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>206.7945362315596</v>
+        <v>206.7945362315601</v>
       </c>
       <c r="M3" t="n">
-        <v>115.4839025616399</v>
+        <v>205.8961727913284</v>
       </c>
       <c r="N3" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O3" t="n">
-        <v>115.8594486111111</v>
+        <v>210.0785512715234</v>
       </c>
       <c r="P3" t="n">
-        <v>203.0733086845552</v>
+        <v>203.0733086845556</v>
       </c>
       <c r="Q3" t="n">
-        <v>207.9542941053043</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8140,19 +8140,19 @@
         <v>104.82327226356</v>
       </c>
       <c r="L4" t="n">
-        <v>203.8129021389179</v>
+        <v>136.4015406898736</v>
       </c>
       <c r="M4" t="n">
-        <v>203.2894696871173</v>
+        <v>207.0963021178414</v>
       </c>
       <c r="N4" t="n">
-        <v>197.9636075384138</v>
+        <v>197.9636075384143</v>
       </c>
       <c r="O4" t="n">
-        <v>206.7150401525341</v>
+        <v>206.7150401525346</v>
       </c>
       <c r="P4" t="n">
-        <v>111.9040032899324</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q4" t="n">
         <v>84.9458458910769</v>
@@ -8219,19 +8219,19 @@
         <v>178.8230039740467</v>
       </c>
       <c r="L5" t="n">
-        <v>281.9724823928028</v>
+        <v>285.7793148235269</v>
       </c>
       <c r="M5" t="n">
-        <v>281.375417157571</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N5" t="n">
-        <v>280.6172168326419</v>
+        <v>276.8103844019187</v>
       </c>
       <c r="O5" t="n">
-        <v>281.1738994405323</v>
+        <v>281.1738994405328</v>
       </c>
       <c r="P5" t="n">
-        <v>187.8768090511565</v>
+        <v>282.0959117115688</v>
       </c>
       <c r="Q5" t="n">
         <v>180.6233730229902</v>
@@ -8292,28 +8292,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>206.2152718270785</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>142.1249295249712</v>
+        <v>206.7945362315601</v>
       </c>
       <c r="M6" t="n">
         <v>115.4839025616399</v>
       </c>
       <c r="N6" t="n">
-        <v>106.7151410677083</v>
+        <v>200.9342437281206</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>206.2717188407997</v>
       </c>
       <c r="P6" t="n">
-        <v>203.0733086845552</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
-        <v>207.9542941053043</v>
+        <v>207.9542941053048</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8377,16 +8377,16 @@
         <v>104.82327226356</v>
       </c>
       <c r="L7" t="n">
-        <v>203.8129021389179</v>
+        <v>203.8129021389184</v>
       </c>
       <c r="M7" t="n">
-        <v>207.0963021178409</v>
+        <v>207.0963021178414</v>
       </c>
       <c r="N7" t="n">
-        <v>194.1567751076901</v>
+        <v>194.1567751076905</v>
       </c>
       <c r="O7" t="n">
-        <v>206.7150401525341</v>
+        <v>206.7150401525346</v>
       </c>
       <c r="P7" t="n">
         <v>111.9040032899324</v>
@@ -8453,22 +8453,22 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L8" t="n">
-        <v>511.4364970724349</v>
+        <v>511.4364970724353</v>
       </c>
       <c r="M8" t="n">
-        <v>505.8991511145807</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>506.2743990815504</v>
+        <v>506.2743990815508</v>
       </c>
       <c r="O8" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P8" t="n">
-        <v>187.8768090511565</v>
+        <v>264.0536133001115</v>
       </c>
       <c r="Q8" t="n">
         <v>180.6233730229902</v>
@@ -8535,16 +8535,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>302.0959049143024</v>
       </c>
       <c r="M9" t="n">
-        <v>435.3601874709601</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
-        <v>305.3799199542646</v>
+        <v>435.7357335204317</v>
       </c>
       <c r="P9" t="n">
         <v>414.0015992319183</v>
@@ -8781,13 +8781,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>264.6327241058812</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>352.065200599033</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9015,10 +9015,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>295.5863090836203</v>
       </c>
       <c r="O15" t="n">
-        <v>184.4622374967491</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
@@ -9249,10 +9249,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>605.4165828749999</v>
+        <v>277.8578053120006</v>
       </c>
       <c r="N18" t="n">
-        <v>295.5863090836203</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>481.0382014046027</v>
+        <v>295.5863090836206</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.6485817356219</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>481.0382014046027</v>
+        <v>295.5863090836203</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.6485817356219</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>83.74785933339987</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9960,10 +9960,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>543.4801842421142</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>481.0382014046022</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10188,7 +10188,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339986</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10197,10 +10197,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>358.0282919211318</v>
       </c>
       <c r="N30" t="n">
-        <v>295.5863090836199</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10425,13 +10425,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>83.74785933339987</v>
+        <v>83.74785933339986</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>482.0924488944969</v>
+        <v>420.1560502616115</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
@@ -10443,10 +10443,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>166.6133082780511</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>87.6485817356219</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10668,10 +10668,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>154.5336713314976</v>
       </c>
       <c r="M36" t="n">
-        <v>277.8578053120006</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
@@ -10902,7 +10902,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>78.99621350193965</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>295.5863090836203</v>
+        <v>560.3949036980329</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>481.0382014046027</v>
+        <v>295.5863090836198</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.6485817356219</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11385,10 +11385,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>295.5863090836203</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>512.0210150597484</v>
+        <v>184.4622374967478</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>89.90455414968527</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>289.5171170790989</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>67.76655404901214</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>39.57543840560628</v>
+        <v>163.7086228358611</v>
       </c>
       <c r="V11" t="n">
-        <v>245.0121773615963</v>
+        <v>245.0121773615962</v>
       </c>
       <c r="W11" t="n">
-        <v>270.3122768395532</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>289.6125350722998</v>
+        <v>289.6125350722997</v>
       </c>
       <c r="Y11" t="n">
-        <v>301.0091328684986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>93.12251099611416</v>
       </c>
       <c r="C13" t="n">
-        <v>79.32250584151471</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>62.94387023909303</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>61.89162009487248</v>
       </c>
       <c r="F13" t="n">
-        <v>62.35854442305886</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>78.46191704206583</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>10.13016809775771</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>49.01134651062358</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.72563515054813</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>125.2633824043468</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>140.3426354621562</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>289.5171170790989</v>
+        <v>289.5171170790988</v>
       </c>
       <c r="D14" t="n">
-        <v>280.4984211236268</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>88.0556715320233</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>69.61543666667342</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>163.7086228358611</v>
       </c>
       <c r="V14" t="n">
         <v>245.0121773615962</v>
       </c>
       <c r="W14" t="n">
-        <v>270.3122768395531</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>60.18156814367845</v>
+        <v>289.6125350722997</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.12251099611419</v>
+        <v>93.12251099611413</v>
       </c>
       <c r="C16" t="n">
-        <v>79.32250584151467</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>62.94387023909306</v>
+        <v>62.943870239093</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>19.26620201647182</v>
       </c>
       <c r="F16" t="n">
-        <v>62.35854442305882</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>49.01134651062355</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.72563515054811</v>
       </c>
       <c r="S16" t="n">
-        <v>109.5396366312955</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>131.2175032182238</v>
       </c>
     </row>
     <row r="17">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-6.474463661460996e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>268668.4211729637</v>
+        <v>268668.4211729636</v>
       </c>
       <c r="C2" t="n">
         <v>268668.4211729636</v>
       </c>
       <c r="D2" t="n">
-        <v>268668.4211729637</v>
+        <v>268668.4211729636</v>
       </c>
       <c r="E2" t="n">
-        <v>233332.9791238077</v>
+        <v>233332.9791238082</v>
       </c>
       <c r="F2" t="n">
         <v>233332.9791238081</v>
       </c>
       <c r="G2" t="n">
-        <v>268668.4211729637</v>
+        <v>268668.4211729638</v>
       </c>
       <c r="H2" t="n">
         <v>268668.4211729636</v>
@@ -26335,13 +26335,13 @@
         <v>268668.4211729636</v>
       </c>
       <c r="J2" t="n">
-        <v>268668.421172964</v>
+        <v>268668.4211729635</v>
       </c>
       <c r="K2" t="n">
-        <v>268668.4211729635</v>
+        <v>268668.4211729636</v>
       </c>
       <c r="L2" t="n">
-        <v>268668.4211729637</v>
+        <v>268668.4211729638</v>
       </c>
       <c r="M2" t="n">
         <v>268668.4211729637</v>
@@ -26350,10 +26350,10 @@
         <v>268668.4211729637</v>
       </c>
       <c r="O2" t="n">
-        <v>268668.4211729637</v>
+        <v>268668.4211729638</v>
       </c>
       <c r="P2" t="n">
-        <v>268668.4211729637</v>
+        <v>268668.4211729636</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31574.98834086519</v>
+        <v>31574.98834086535</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>70095.89052197841</v>
+        <v>70095.89052197839</v>
       </c>
       <c r="E3" t="n">
-        <v>241499.6676820819</v>
+        <v>241499.6676820818</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61586.00037134529</v>
+        <v>61586.00037134517</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>107374.4157946592</v>
+        <v>107374.4157946594</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>108783.1384666378</v>
+        <v>108783.1384666377</v>
       </c>
       <c r="M3" t="n">
-        <v>78698.04592039487</v>
+        <v>78698.04592039477</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>23680.70510584499</v>
+        <v>23680.70510584507</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>345450.4514975111</v>
+        <v>345450.451497511</v>
       </c>
       <c r="C4" t="n">
-        <v>345450.4514975111</v>
+        <v>345450.451497511</v>
       </c>
       <c r="D4" t="n">
-        <v>302199.7102252886</v>
+        <v>302199.7102252885</v>
       </c>
       <c r="E4" t="n">
-        <v>172329.4883631853</v>
+        <v>172329.4883631854</v>
       </c>
       <c r="F4" t="n">
-        <v>172329.4883631853</v>
+        <v>172329.4883631854</v>
       </c>
       <c r="G4" t="n">
         <v>229756.4510440663</v>
@@ -26451,10 +26451,10 @@
         <v>229756.4510440663</v>
       </c>
       <c r="N4" t="n">
-        <v>229756.4510440663</v>
+        <v>229756.4510440664</v>
       </c>
       <c r="O4" t="n">
-        <v>229756.4510440663</v>
+        <v>229756.4510440664</v>
       </c>
       <c r="P4" t="n">
         <v>229756.4510440663</v>
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39356.12144175304</v>
+        <v>39356.12144175306</v>
       </c>
       <c r="C5" t="n">
-        <v>39356.12144175304</v>
+        <v>39356.12144175306</v>
       </c>
       <c r="D5" t="n">
-        <v>53076.07812248667</v>
+        <v>53076.0781224867</v>
       </c>
       <c r="E5" t="n">
         <v>48168.48921240021</v>
       </c>
       <c r="F5" t="n">
-        <v>48168.48921240021</v>
+        <v>48168.48921240022</v>
       </c>
       <c r="G5" t="n">
         <v>54640.33104392349</v>
@@ -26494,7 +26494,7 @@
         <v>63400.5174714907</v>
       </c>
       <c r="K5" t="n">
-        <v>63400.5174714907</v>
+        <v>63400.51747149069</v>
       </c>
       <c r="L5" t="n">
         <v>54640.3310439235</v>
@@ -26503,13 +26503,13 @@
         <v>54640.33104392349</v>
       </c>
       <c r="N5" t="n">
-        <v>54640.33104392349</v>
+        <v>54640.3310439235</v>
       </c>
       <c r="O5" t="n">
-        <v>54640.33104392349</v>
+        <v>54640.3310439235</v>
       </c>
       <c r="P5" t="n">
-        <v>54640.33104392349</v>
+        <v>54640.33104392348</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-147713.1401071656</v>
+        <v>-147713.1401071658</v>
       </c>
       <c r="C6" t="n">
         <v>-116138.1517663005</v>
@@ -26528,40 +26528,40 @@
         <v>-156703.25769679</v>
       </c>
       <c r="E6" t="n">
-        <v>-228664.6661338597</v>
+        <v>-228917.0621484961</v>
       </c>
       <c r="F6" t="n">
-        <v>12835.00154822251</v>
+        <v>12582.60553358558</v>
       </c>
       <c r="G6" t="n">
-        <v>-77314.36128637144</v>
+        <v>-77314.36128637115</v>
       </c>
       <c r="H6" t="n">
+        <v>-15728.36091502621</v>
+      </c>
+      <c r="I6" t="n">
         <v>-15728.36091502623</v>
       </c>
-      <c r="I6" t="n">
-        <v>-15728.36091502626</v>
-      </c>
       <c r="J6" t="n">
-        <v>-133011.8886354431</v>
+        <v>-133011.8886354438</v>
       </c>
       <c r="K6" t="n">
-        <v>-25637.47284078439</v>
+        <v>-25637.47284078426</v>
       </c>
       <c r="L6" t="n">
-        <v>-124511.4993816639</v>
+        <v>-124511.4993816637</v>
       </c>
       <c r="M6" t="n">
-        <v>-94426.406835421</v>
+        <v>-94426.40683542089</v>
       </c>
       <c r="N6" t="n">
-        <v>-15728.36091502612</v>
+        <v>-15728.36091502624</v>
       </c>
       <c r="O6" t="n">
-        <v>-39409.06602087115</v>
+        <v>-39409.06602087113</v>
       </c>
       <c r="P6" t="n">
-        <v>-15728.36091502612</v>
+        <v>-15728.36091502622</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="F2" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="G2" t="n">
         <v>165.5798044656034</v>
@@ -26719,13 +26719,13 @@
         <v>165.5798044656034</v>
       </c>
       <c r="N2" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="O2" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="P2" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988868</v>
+        <v>95.0103294798887</v>
       </c>
       <c r="F3" t="n">
-        <v>95.01032947988874</v>
+        <v>95.01032947988875</v>
       </c>
       <c r="G3" t="n">
-        <v>95.01032947988874</v>
+        <v>95.01032947988875</v>
       </c>
       <c r="H3" t="n">
-        <v>95.01032947988874</v>
+        <v>95.01032947988872</v>
       </c>
       <c r="I3" t="n">
-        <v>95.01032947988874</v>
+        <v>95.01032947988875</v>
       </c>
       <c r="J3" t="n">
-        <v>95.01032947988874</v>
+        <v>95.01032947988875</v>
       </c>
       <c r="K3" t="n">
-        <v>95.01032947988874</v>
+        <v>95.01032947988875</v>
       </c>
       <c r="L3" t="n">
-        <v>95.01032947988874</v>
+        <v>95.01032947988875</v>
       </c>
       <c r="M3" t="n">
-        <v>95.01032947988874</v>
+        <v>95.01032947988875</v>
       </c>
       <c r="N3" t="n">
-        <v>95.01032947988874</v>
+        <v>95.01032947988875</v>
       </c>
       <c r="O3" t="n">
-        <v>95.01032947988874</v>
+        <v>95.01032947988875</v>
       </c>
       <c r="P3" t="n">
-        <v>95.01032947988874</v>
+        <v>95.01032947988875</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.21910266041183</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="C4" t="n">
-        <v>94.21910266041183</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="D4" t="n">
-        <v>319.8762849093202</v>
+        <v>319.8762849093206</v>
       </c>
       <c r="E4" t="n">
         <v>635.6739684151827</v>
@@ -26814,7 +26814,7 @@
         <v>861.3311506640911</v>
       </c>
       <c r="K4" t="n">
-        <v>861.3311506640911</v>
+        <v>861.331150664091</v>
       </c>
       <c r="L4" t="n">
         <v>635.6739684151827</v>
@@ -26829,7 +26829,7 @@
         <v>635.6739684151827</v>
       </c>
       <c r="P4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151823</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="F2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>76.98250046418161</v>
+        <v>76.98250046418147</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.60088138230624</v>
+        <v>29.60088138230634</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>135.9789230832972</v>
+        <v>135.9789230832971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>29.60088138230624</v>
+        <v>29.60088138230634</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988868</v>
+        <v>95.0103294798887</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.21910266041183</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>225.6571822489084</v>
+        <v>225.6571822489083</v>
       </c>
       <c r="E4" t="n">
-        <v>315.7976835058624</v>
+        <v>315.797683505862</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>319.8762849093202</v>
+        <v>319.8762849093207</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>315.7976835058624</v>
+        <v>315.797683505862</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="K2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.98250046418161</v>
+        <v>76.98250046418147</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.60088138230624</v>
+        <v>29.60088138230634</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>94.21910266041183</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>225.6571822489084</v>
+        <v>225.6571822489083</v>
       </c>
       <c r="M4" t="n">
-        <v>315.7976835058624</v>
+        <v>315.797683505862</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>295.8840014624266</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>317.0788609205148</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>268.4575014986584</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>76.86992414288011</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>91.13758295553774</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>127.8962541458871</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
@@ -27442,10 +27442,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>283.9907364133093</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>295.387334209508</v>
       </c>
     </row>
     <row r="3">
@@ -27473,7 +27473,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>4.719376218356629</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -27506,22 +27506,22 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>57.05238945697481</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>103.8100671723835</v>
       </c>
       <c r="U3" t="n">
-        <v>122.0907418172611</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>131.8925636657375</v>
+        <v>131.892563665737</v>
       </c>
       <c r="W3" t="n">
-        <v>144.6836074186112</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>112.9496326176926</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.50071233712418</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>73.70070718252467</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>57.32207158010306</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
         <v>150.4889240962943</v>
@@ -27558,7 +27558,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -27591,19 +27591,19 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>204.7196829649045</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>163.9088487367493</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>134.7208368031657</v>
       </c>
       <c r="Y4" t="n">
-        <v>136.8266215963549</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>313.3721568332873</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>317.723844019942</v>
+        <v>317.7238440199416</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>235.2739589982515</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>107.8909797542836</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>158.1173802627341</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63.60614569303644</v>
+        <v>142.5355251869967</v>
       </c>
       <c r="C6" t="n">
-        <v>65.86753337104301</v>
+        <v>65.86753337104254</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
@@ -27710,10 +27710,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>4.719376218356629</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>57.05238945697528</v>
+        <v>57.05238945697481</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>192.5080850703859</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -27795,7 +27795,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>201.3301514925004</v>
+        <v>190.0992344553788</v>
       </c>
       <c r="V7" t="n">
-        <v>163.9088487367498</v>
+        <v>163.9088487367493</v>
       </c>
       <c r="W7" t="n">
-        <v>189.075734807363</v>
+        <v>189.0757348073626</v>
       </c>
       <c r="X7" t="n">
-        <v>134.7208368031662</v>
+        <v>205.4084200402559</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>70.2268192135187</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>58.23813617120004</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>70.96157778563395</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
+        <v>140.2055937151557</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>95.41789806089059</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27910,13 +27910,13 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>13.73319645369742</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>58.33355416440094</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>43.84332670572836</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>24.11483605013578</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,10 +27986,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
@@ -27998,7 +27998,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28017,22 +28017,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>84.69768482647865</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>38.64046520703937</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="C11" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="D11" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="E11" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="F11" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="G11" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="H11" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="I11" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.73916953180445</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S11" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="T11" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="U11" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="V11" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="W11" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="X11" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="C13" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="D13" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="E13" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="F13" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="G13" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="H13" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="I13" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="J13" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="K13" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="L13" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="M13" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="N13" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="O13" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="P13" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="R13" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="S13" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="T13" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="U13" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="V13" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="W13" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="X13" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.59730400142179</v>
+        <v>88.59730400142186</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="C14" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="D14" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="E14" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="F14" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="G14" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="H14" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="I14" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S14" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="T14" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="U14" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="V14" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="W14" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="X14" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="C16" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="D16" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="E16" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="F16" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="G16" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="H16" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="I16" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="J16" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="K16" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="L16" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="M16" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="N16" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="O16" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="P16" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="R16" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="S16" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="T16" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="U16" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="V16" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="W16" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="X16" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.59730400142183</v>
+        <v>88.59730400142189</v>
       </c>
     </row>
     <row r="17">
@@ -28691,7 +28691,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.80540818138466</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R19" t="n">
-        <v>140.32293915197</v>
+        <v>47.13622270817588</v>
       </c>
       <c r="S19" t="n">
         <v>165.5798044656034</v>
@@ -28779,7 +28779,7 @@
         <v>165.5798044656034</v>
       </c>
       <c r="V19" t="n">
-        <v>72.39308802180838</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="W19" t="n">
         <v>165.5798044656034</v>
@@ -28895,10 +28895,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>-6.110667527536862e-13</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -29004,10 +29004,10 @@
         <v>23.80540818138466</v>
       </c>
       <c r="R22" t="n">
-        <v>140.32293915197</v>
+        <v>47.13622270817588</v>
       </c>
       <c r="S22" t="n">
-        <v>72.39308802180832</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="T22" t="n">
         <v>165.5798044656034</v>
@@ -29238,19 +29238,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>23.80540818138466</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R25" t="n">
         <v>140.32293915197</v>
       </c>
       <c r="S25" t="n">
-        <v>72.39308802180832</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="T25" t="n">
         <v>165.5798044656034</v>
       </c>
       <c r="U25" t="n">
-        <v>165.5798044656034</v>
+        <v>72.39308802180895</v>
       </c>
       <c r="V25" t="n">
         <v>165.5798044656034</v>
@@ -29454,7 +29454,7 @@
         <v>106.5833818464879</v>
       </c>
       <c r="J28" t="n">
-        <v>106.5833818464879</v>
+        <v>84.63111518229593</v>
       </c>
       <c r="K28" t="n">
         <v>106.5833818464879</v>
@@ -29466,7 +29466,7 @@
         <v>106.5833818464879</v>
       </c>
       <c r="N28" t="n">
-        <v>84.63111518229519</v>
+        <v>106.5833818464879</v>
       </c>
       <c r="O28" t="n">
         <v>106.5833818464879</v>
@@ -29949,16 +29949,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>23.80540818138466</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R34" t="n">
         <v>140.32293915197</v>
       </c>
       <c r="S34" t="n">
+        <v>72.39308802180821</v>
+      </c>
+      <c r="T34" t="n">
         <v>165.5798044656035</v>
-      </c>
-      <c r="T34" t="n">
-        <v>72.39308802180824</v>
       </c>
       <c r="U34" t="n">
         <v>165.5798044656035</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>-2.344791028008331e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30153,7 +30153,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>57.76913198068634</v>
       </c>
       <c r="G37" t="n">
         <v>165.5798044656034</v>
@@ -30186,13 +30186,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>23.80540818138466</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R37" t="n">
         <v>140.32293915197</v>
       </c>
       <c r="S37" t="n">
-        <v>72.39308802180889</v>
+        <v>165.5798044656034</v>
       </c>
       <c r="T37" t="n">
         <v>165.5798044656034</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="C38" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="D38" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="E38" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="F38" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="G38" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="H38" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="I38" t="n">
         <v>156.363858050434</v>
@@ -30271,25 +30271,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S38" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="T38" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="U38" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="V38" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="W38" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="X38" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="Y38" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
     </row>
     <row r="39">
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>-2.344791028008331e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="C40" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,7 +30393,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="H40" t="n">
         <v>156.2556384040709</v>
@@ -30402,7 +30402,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R40" t="n">
         <v>140.32293915197</v>
       </c>
       <c r="S40" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="T40" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="U40" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="V40" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="W40" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="X40" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="Y40" t="n">
-        <v>143.5421241676692</v>
+        <v>72.39308802180821</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="C41" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="D41" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="E41" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="F41" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="G41" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="H41" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="I41" t="n">
         <v>156.363858050434</v>
@@ -30508,25 +30508,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S41" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="T41" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="U41" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="V41" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="W41" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="X41" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="Y41" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="C43" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,13 +30630,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="H43" t="n">
         <v>156.2556384040709</v>
       </c>
       <c r="I43" t="n">
-        <v>137.6086505120454</v>
+        <v>44.42193406825021</v>
       </c>
       <c r="J43" t="n">
         <v>47.34362796447564</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>23.80540818138466</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R43" t="n">
         <v>140.32293915197</v>
       </c>
       <c r="S43" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="T43" t="n">
-        <v>72.39308802180892</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="U43" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="V43" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="W43" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="X43" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="Y43" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="C44" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="D44" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="E44" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="F44" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="G44" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="H44" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="I44" t="n">
-        <v>156.363858050434</v>
+        <v>156.3638580504329</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30724,7 +30724,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S44" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="T44" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="U44" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="V44" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="W44" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="X44" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="Y44" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
     </row>
     <row r="45">
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="C46" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,7 +30867,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5798044656034</v>
+        <v>143.5421241676685</v>
       </c>
       <c r="H46" t="n">
         <v>156.2556384040709</v>
@@ -30876,7 +30876,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J46" t="n">
-        <v>47.34362796447564</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>140.32293915197</v>
       </c>
       <c r="S46" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="T46" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="U46" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="V46" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="W46" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="X46" t="n">
-        <v>165.5798044656034</v>
+        <v>165.5798044656035</v>
       </c>
       <c r="Y46" t="n">
-        <v>72.39308802180904</v>
+        <v>165.5798044656035</v>
       </c>
     </row>
   </sheetData>
@@ -31753,31 +31753,31 @@
         <v>0.3819510732859844</v>
       </c>
       <c r="H11" t="n">
-        <v>3.911656429290088</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I11" t="n">
         <v>14.72516875285793</v>
       </c>
       <c r="J11" t="n">
-        <v>32.41761990630634</v>
+        <v>32.41761990630635</v>
       </c>
       <c r="K11" t="n">
         <v>48.58560883850208</v>
       </c>
       <c r="L11" t="n">
-        <v>60.27474399757803</v>
+        <v>60.27474399757804</v>
       </c>
       <c r="M11" t="n">
         <v>67.06726639712765</v>
       </c>
       <c r="N11" t="n">
-        <v>68.15248488410145</v>
+        <v>68.15248488410147</v>
       </c>
       <c r="O11" t="n">
         <v>64.35445889911395</v>
       </c>
       <c r="P11" t="n">
-        <v>54.9250417773662</v>
+        <v>54.92504177736621</v>
       </c>
       <c r="Q11" t="n">
         <v>41.24641896531188</v>
@@ -31786,13 +31786,13 @@
         <v>23.99273410730074</v>
       </c>
       <c r="S11" t="n">
-        <v>8.703710082504378</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T11" t="n">
-        <v>1.671990823309397</v>
+        <v>1.671990823309398</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03055608586287874</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>1.973705146365235</v>
       </c>
       <c r="I12" t="n">
-        <v>7.03614232468987</v>
+        <v>7.036142324689871</v>
       </c>
       <c r="J12" t="n">
         <v>19.30771233326682</v>
@@ -31850,25 +31850,25 @@
         <v>51.78062956653933</v>
       </c>
       <c r="N12" t="n">
-        <v>53.15110875309358</v>
+        <v>53.15110875309359</v>
       </c>
       <c r="O12" t="n">
-        <v>48.62288059712756</v>
+        <v>48.62288059712757</v>
       </c>
       <c r="P12" t="n">
-        <v>39.02414834806975</v>
+        <v>39.02414834806976</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.08660970927057</v>
+        <v>26.08660970927058</v>
       </c>
       <c r="R12" t="n">
-        <v>12.68836060488023</v>
+        <v>12.68836060488024</v>
       </c>
       <c r="S12" t="n">
         <v>3.795931559880456</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8237216301133742</v>
+        <v>0.8237216301133744</v>
       </c>
       <c r="U12" t="n">
         <v>0.01344485794526727</v>
@@ -31911,25 +31911,25 @@
         <v>0.1713301023407829</v>
       </c>
       <c r="H13" t="n">
-        <v>1.523280364448052</v>
+        <v>1.523280364448053</v>
       </c>
       <c r="I13" t="n">
-        <v>5.152363441302817</v>
+        <v>5.152363441302818</v>
       </c>
       <c r="J13" t="n">
         <v>12.11303823549335</v>
       </c>
       <c r="K13" t="n">
-        <v>19.90544279922913</v>
+        <v>19.90544279922914</v>
       </c>
       <c r="L13" t="n">
-        <v>25.47211357891966</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M13" t="n">
         <v>26.85677231511017</v>
       </c>
       <c r="N13" t="n">
-        <v>26.21817829729454</v>
+        <v>26.21817829729455</v>
       </c>
       <c r="O13" t="n">
         <v>24.21673119267721</v>
@@ -31941,13 +31941,13 @@
         <v>14.34655975146319</v>
       </c>
       <c r="R13" t="n">
-        <v>7.703624419795561</v>
+        <v>7.703624419795562</v>
       </c>
       <c r="S13" t="n">
-        <v>2.985816419884369</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7320468009106175</v>
+        <v>0.7320468009106176</v>
       </c>
       <c r="U13" t="n">
         <v>0.009345278309497258</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3819510732859846</v>
+        <v>0.3819510732859847</v>
       </c>
       <c r="H14" t="n">
         <v>3.911656429290091</v>
@@ -31996,40 +31996,40 @@
         <v>14.72516875285794</v>
       </c>
       <c r="J14" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630637</v>
       </c>
       <c r="K14" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850211</v>
       </c>
       <c r="L14" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757807</v>
       </c>
       <c r="M14" t="n">
         <v>67.0672663971277</v>
       </c>
       <c r="N14" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410151</v>
       </c>
       <c r="O14" t="n">
         <v>64.35445889911399</v>
       </c>
       <c r="P14" t="n">
-        <v>54.92504177736623</v>
+        <v>54.92504177736624</v>
       </c>
       <c r="Q14" t="n">
         <v>41.2464189653119</v>
       </c>
       <c r="R14" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730076</v>
       </c>
       <c r="S14" t="n">
-        <v>8.703710082504383</v>
+        <v>8.703710082504385</v>
       </c>
       <c r="T14" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287877</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,28 +32069,28 @@
         <v>0.2043618407680626</v>
       </c>
       <c r="H15" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365237</v>
       </c>
       <c r="I15" t="n">
-        <v>7.036142324689875</v>
+        <v>7.036142324689876</v>
       </c>
       <c r="J15" t="n">
         <v>19.30771233326683</v>
       </c>
       <c r="K15" t="n">
-        <v>32.99995566472702</v>
+        <v>32.99995566472703</v>
       </c>
       <c r="L15" t="n">
-        <v>44.3725128386971</v>
+        <v>44.37251283869711</v>
       </c>
       <c r="M15" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653936</v>
       </c>
       <c r="N15" t="n">
-        <v>53.15110875309361</v>
+        <v>53.15110875309362</v>
       </c>
       <c r="O15" t="n">
-        <v>48.62288059712759</v>
+        <v>48.6228805971276</v>
       </c>
       <c r="P15" t="n">
         <v>39.02414834806978</v>
@@ -32102,10 +32102,10 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S15" t="n">
-        <v>3.795931559880458</v>
+        <v>3.795931559880459</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8237216301133747</v>
+        <v>0.8237216301133748</v>
       </c>
       <c r="U15" t="n">
         <v>0.01344485794526728</v>
@@ -32145,7 +32145,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.171330102340783</v>
       </c>
       <c r="H16" t="n">
         <v>1.523280364448053</v>
@@ -32154,22 +32154,22 @@
         <v>5.15236344130282</v>
       </c>
       <c r="J16" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K16" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L16" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891969</v>
       </c>
       <c r="M16" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511019</v>
       </c>
       <c r="N16" t="n">
         <v>26.21817829729456</v>
       </c>
       <c r="O16" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267723</v>
       </c>
       <c r="P16" t="n">
         <v>20.72159710492523</v>
@@ -32178,16 +32178,16 @@
         <v>14.3465597514632</v>
       </c>
       <c r="R16" t="n">
-        <v>7.703624419795566</v>
+        <v>7.703624419795568</v>
       </c>
       <c r="S16" t="n">
-        <v>2.985816419884371</v>
+        <v>2.985816419884372</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7320468009106179</v>
+        <v>0.732046800910618</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009345278309497263</v>
+        <v>0.009345278309497265</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3819510732859846</v>
+        <v>0.3819510732859847</v>
       </c>
       <c r="H17" t="n">
         <v>3.911656429290091</v>
@@ -32233,40 +32233,40 @@
         <v>14.72516875285794</v>
       </c>
       <c r="J17" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630637</v>
       </c>
       <c r="K17" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850211</v>
       </c>
       <c r="L17" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757807</v>
       </c>
       <c r="M17" t="n">
         <v>67.0672663971277</v>
       </c>
       <c r="N17" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410151</v>
       </c>
       <c r="O17" t="n">
         <v>64.35445889911399</v>
       </c>
       <c r="P17" t="n">
-        <v>54.92504177736623</v>
+        <v>54.92504177736624</v>
       </c>
       <c r="Q17" t="n">
         <v>41.2464189653119</v>
       </c>
       <c r="R17" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730076</v>
       </c>
       <c r="S17" t="n">
-        <v>8.703710082504383</v>
+        <v>8.703710082504385</v>
       </c>
       <c r="T17" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287877</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,28 +32306,28 @@
         <v>0.2043618407680626</v>
       </c>
       <c r="H18" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365237</v>
       </c>
       <c r="I18" t="n">
-        <v>7.036142324689875</v>
+        <v>7.036142324689876</v>
       </c>
       <c r="J18" t="n">
         <v>19.30771233326683</v>
       </c>
       <c r="K18" t="n">
-        <v>32.99995566472702</v>
+        <v>32.99995566472703</v>
       </c>
       <c r="L18" t="n">
-        <v>44.3725128386971</v>
+        <v>44.37251283869711</v>
       </c>
       <c r="M18" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653936</v>
       </c>
       <c r="N18" t="n">
-        <v>53.15110875309361</v>
+        <v>53.15110875309362</v>
       </c>
       <c r="O18" t="n">
-        <v>48.62288059712759</v>
+        <v>48.6228805971276</v>
       </c>
       <c r="P18" t="n">
         <v>39.02414834806978</v>
@@ -32339,10 +32339,10 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S18" t="n">
-        <v>3.795931559880458</v>
+        <v>3.795931559880459</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8237216301133747</v>
+        <v>0.8237216301133748</v>
       </c>
       <c r="U18" t="n">
         <v>0.01344485794526728</v>
@@ -32382,7 +32382,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.171330102340783</v>
       </c>
       <c r="H19" t="n">
         <v>1.523280364448053</v>
@@ -32391,22 +32391,22 @@
         <v>5.15236344130282</v>
       </c>
       <c r="J19" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K19" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L19" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891969</v>
       </c>
       <c r="M19" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511019</v>
       </c>
       <c r="N19" t="n">
         <v>26.21817829729456</v>
       </c>
       <c r="O19" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267723</v>
       </c>
       <c r="P19" t="n">
         <v>20.72159710492523</v>
@@ -32415,16 +32415,16 @@
         <v>14.3465597514632</v>
       </c>
       <c r="R19" t="n">
-        <v>7.703624419795566</v>
+        <v>7.703624419795568</v>
       </c>
       <c r="S19" t="n">
-        <v>2.985816419884371</v>
+        <v>2.985816419884372</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7320468009106179</v>
+        <v>0.732046800910618</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009345278309497263</v>
+        <v>0.009345278309497265</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,13 +32461,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3819510732859846</v>
+        <v>0.3819510732859845</v>
       </c>
       <c r="H20" t="n">
-        <v>3.911656429290091</v>
+        <v>3.91165642929009</v>
       </c>
       <c r="I20" t="n">
-        <v>14.72516875285794</v>
+        <v>14.72516875285793</v>
       </c>
       <c r="J20" t="n">
         <v>32.41761990630636</v>
@@ -32479,25 +32479,25 @@
         <v>60.27474399757806</v>
       </c>
       <c r="M20" t="n">
-        <v>67.0672663971277</v>
+        <v>67.06726639712768</v>
       </c>
       <c r="N20" t="n">
         <v>68.1524848841015</v>
       </c>
       <c r="O20" t="n">
-        <v>64.35445889911399</v>
+        <v>64.35445889911398</v>
       </c>
       <c r="P20" t="n">
-        <v>54.92504177736623</v>
+        <v>54.92504177736622</v>
       </c>
       <c r="Q20" t="n">
-        <v>41.2464189653119</v>
+        <v>41.24641896531189</v>
       </c>
       <c r="R20" t="n">
         <v>23.99273410730075</v>
       </c>
       <c r="S20" t="n">
-        <v>8.703710082504383</v>
+        <v>8.703710082504381</v>
       </c>
       <c r="T20" t="n">
         <v>1.671990823309398</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2043618407680626</v>
+        <v>0.2043618407680625</v>
       </c>
       <c r="H21" t="n">
         <v>1.973705146365236</v>
       </c>
       <c r="I21" t="n">
-        <v>7.036142324689875</v>
+        <v>7.036142324689874</v>
       </c>
       <c r="J21" t="n">
-        <v>19.30771233326683</v>
+        <v>19.30771233326682</v>
       </c>
       <c r="K21" t="n">
-        <v>32.99995566472702</v>
+        <v>32.99995566472701</v>
       </c>
       <c r="L21" t="n">
-        <v>44.3725128386971</v>
+        <v>44.37251283869709</v>
       </c>
       <c r="M21" t="n">
         <v>51.78062956653935</v>
       </c>
       <c r="N21" t="n">
-        <v>53.15110875309361</v>
+        <v>53.1511087530936</v>
       </c>
       <c r="O21" t="n">
-        <v>48.62288059712759</v>
+        <v>48.62288059712758</v>
       </c>
       <c r="P21" t="n">
-        <v>39.02414834806978</v>
+        <v>39.02414834806977</v>
       </c>
       <c r="Q21" t="n">
-        <v>26.08660970927059</v>
+        <v>26.08660970927058</v>
       </c>
       <c r="R21" t="n">
         <v>12.68836060488024</v>
       </c>
       <c r="S21" t="n">
-        <v>3.795931559880458</v>
+        <v>3.795931559880457</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8237216301133747</v>
+        <v>0.8237216301133746</v>
       </c>
       <c r="U21" t="n">
         <v>0.01344485794526728</v>
@@ -32625,7 +32625,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I22" t="n">
-        <v>5.15236344130282</v>
+        <v>5.152363441302819</v>
       </c>
       <c r="J22" t="n">
         <v>12.11303823549335</v>
@@ -32640,7 +32640,7 @@
         <v>26.85677231511018</v>
       </c>
       <c r="N22" t="n">
-        <v>26.21817829729456</v>
+        <v>26.21817829729455</v>
       </c>
       <c r="O22" t="n">
         <v>24.21673119267722</v>
@@ -32652,16 +32652,16 @@
         <v>14.3465597514632</v>
       </c>
       <c r="R22" t="n">
-        <v>7.703624419795566</v>
+        <v>7.703624419795565</v>
       </c>
       <c r="S22" t="n">
         <v>2.985816419884371</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7320468009106179</v>
+        <v>0.7320468009106178</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009345278309497263</v>
+        <v>0.009345278309497261</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3819510732859846</v>
+        <v>0.3819510732859847</v>
       </c>
       <c r="H23" t="n">
         <v>3.911656429290091</v>
@@ -32707,40 +32707,40 @@
         <v>14.72516875285794</v>
       </c>
       <c r="J23" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630637</v>
       </c>
       <c r="K23" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850211</v>
       </c>
       <c r="L23" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757807</v>
       </c>
       <c r="M23" t="n">
         <v>67.0672663971277</v>
       </c>
       <c r="N23" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410151</v>
       </c>
       <c r="O23" t="n">
         <v>64.35445889911399</v>
       </c>
       <c r="P23" t="n">
-        <v>54.92504177736623</v>
+        <v>54.92504177736624</v>
       </c>
       <c r="Q23" t="n">
         <v>41.2464189653119</v>
       </c>
       <c r="R23" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730076</v>
       </c>
       <c r="S23" t="n">
-        <v>8.703710082504383</v>
+        <v>8.703710082504385</v>
       </c>
       <c r="T23" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287877</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,28 +32780,28 @@
         <v>0.2043618407680626</v>
       </c>
       <c r="H24" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365237</v>
       </c>
       <c r="I24" t="n">
-        <v>7.036142324689875</v>
+        <v>7.036142324689876</v>
       </c>
       <c r="J24" t="n">
         <v>19.30771233326683</v>
       </c>
       <c r="K24" t="n">
-        <v>32.99995566472702</v>
+        <v>32.99995566472703</v>
       </c>
       <c r="L24" t="n">
-        <v>44.3725128386971</v>
+        <v>44.37251283869711</v>
       </c>
       <c r="M24" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653936</v>
       </c>
       <c r="N24" t="n">
-        <v>53.15110875309361</v>
+        <v>53.15110875309362</v>
       </c>
       <c r="O24" t="n">
-        <v>48.62288059712759</v>
+        <v>48.6228805971276</v>
       </c>
       <c r="P24" t="n">
         <v>39.02414834806978</v>
@@ -32813,10 +32813,10 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S24" t="n">
-        <v>3.795931559880458</v>
+        <v>3.795931559880459</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8237216301133747</v>
+        <v>0.8237216301133748</v>
       </c>
       <c r="U24" t="n">
         <v>0.01344485794526728</v>
@@ -32856,7 +32856,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.171330102340783</v>
       </c>
       <c r="H25" t="n">
         <v>1.523280364448053</v>
@@ -32865,22 +32865,22 @@
         <v>5.15236344130282</v>
       </c>
       <c r="J25" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K25" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L25" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891969</v>
       </c>
       <c r="M25" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511019</v>
       </c>
       <c r="N25" t="n">
         <v>26.21817829729456</v>
       </c>
       <c r="O25" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267723</v>
       </c>
       <c r="P25" t="n">
         <v>20.72159710492523</v>
@@ -32889,16 +32889,16 @@
         <v>14.3465597514632</v>
       </c>
       <c r="R25" t="n">
-        <v>7.703624419795566</v>
+        <v>7.703624419795568</v>
       </c>
       <c r="S25" t="n">
-        <v>2.985816419884371</v>
+        <v>2.985816419884372</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7320468009106179</v>
+        <v>0.732046800910618</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009345278309497263</v>
+        <v>0.009345278309497265</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3819510732859846</v>
+        <v>0.3819510732859847</v>
       </c>
       <c r="H26" t="n">
         <v>3.911656429290091</v>
@@ -32944,40 +32944,40 @@
         <v>14.72516875285794</v>
       </c>
       <c r="J26" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630637</v>
       </c>
       <c r="K26" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850211</v>
       </c>
       <c r="L26" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757807</v>
       </c>
       <c r="M26" t="n">
         <v>67.0672663971277</v>
       </c>
       <c r="N26" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410151</v>
       </c>
       <c r="O26" t="n">
         <v>64.35445889911399</v>
       </c>
       <c r="P26" t="n">
-        <v>54.92504177736623</v>
+        <v>54.92504177736624</v>
       </c>
       <c r="Q26" t="n">
         <v>41.2464189653119</v>
       </c>
       <c r="R26" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730076</v>
       </c>
       <c r="S26" t="n">
-        <v>8.703710082504383</v>
+        <v>8.703710082504385</v>
       </c>
       <c r="T26" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287877</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,28 +33017,28 @@
         <v>0.2043618407680626</v>
       </c>
       <c r="H27" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365237</v>
       </c>
       <c r="I27" t="n">
-        <v>7.036142324689875</v>
+        <v>7.036142324689876</v>
       </c>
       <c r="J27" t="n">
         <v>19.30771233326683</v>
       </c>
       <c r="K27" t="n">
-        <v>32.99995566472702</v>
+        <v>32.99995566472703</v>
       </c>
       <c r="L27" t="n">
-        <v>44.3725128386971</v>
+        <v>44.37251283869711</v>
       </c>
       <c r="M27" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653936</v>
       </c>
       <c r="N27" t="n">
-        <v>53.15110875309361</v>
+        <v>53.15110875309362</v>
       </c>
       <c r="O27" t="n">
-        <v>48.62288059712759</v>
+        <v>48.6228805971276</v>
       </c>
       <c r="P27" t="n">
         <v>39.02414834806978</v>
@@ -33050,10 +33050,10 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S27" t="n">
-        <v>3.795931559880458</v>
+        <v>3.795931559880459</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8237216301133747</v>
+        <v>0.8237216301133748</v>
       </c>
       <c r="U27" t="n">
         <v>0.01344485794526728</v>
@@ -33093,7 +33093,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.171330102340783</v>
       </c>
       <c r="H28" t="n">
         <v>1.523280364448053</v>
@@ -33102,22 +33102,22 @@
         <v>5.15236344130282</v>
       </c>
       <c r="J28" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K28" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L28" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891969</v>
       </c>
       <c r="M28" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511019</v>
       </c>
       <c r="N28" t="n">
         <v>26.21817829729456</v>
       </c>
       <c r="O28" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267723</v>
       </c>
       <c r="P28" t="n">
         <v>20.72159710492523</v>
@@ -33126,16 +33126,16 @@
         <v>14.3465597514632</v>
       </c>
       <c r="R28" t="n">
-        <v>7.703624419795566</v>
+        <v>7.703624419795568</v>
       </c>
       <c r="S28" t="n">
-        <v>2.985816419884371</v>
+        <v>2.985816419884372</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7320468009106179</v>
+        <v>0.732046800910618</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009345278309497263</v>
+        <v>0.009345278309497265</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3819510732859846</v>
+        <v>0.3819510732859847</v>
       </c>
       <c r="H29" t="n">
         <v>3.911656429290091</v>
@@ -33181,40 +33181,40 @@
         <v>14.72516875285794</v>
       </c>
       <c r="J29" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630637</v>
       </c>
       <c r="K29" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850211</v>
       </c>
       <c r="L29" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757807</v>
       </c>
       <c r="M29" t="n">
         <v>67.0672663971277</v>
       </c>
       <c r="N29" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410151</v>
       </c>
       <c r="O29" t="n">
         <v>64.35445889911399</v>
       </c>
       <c r="P29" t="n">
-        <v>54.92504177736623</v>
+        <v>54.92504177736624</v>
       </c>
       <c r="Q29" t="n">
         <v>41.2464189653119</v>
       </c>
       <c r="R29" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730076</v>
       </c>
       <c r="S29" t="n">
-        <v>8.703710082504383</v>
+        <v>8.703710082504385</v>
       </c>
       <c r="T29" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287877</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,28 +33254,28 @@
         <v>0.2043618407680626</v>
       </c>
       <c r="H30" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365237</v>
       </c>
       <c r="I30" t="n">
-        <v>7.036142324689875</v>
+        <v>7.036142324689876</v>
       </c>
       <c r="J30" t="n">
         <v>19.30771233326683</v>
       </c>
       <c r="K30" t="n">
-        <v>32.99995566472702</v>
+        <v>32.99995566472703</v>
       </c>
       <c r="L30" t="n">
-        <v>44.3725128386971</v>
+        <v>44.37251283869711</v>
       </c>
       <c r="M30" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653936</v>
       </c>
       <c r="N30" t="n">
-        <v>53.15110875309361</v>
+        <v>53.15110875309362</v>
       </c>
       <c r="O30" t="n">
-        <v>48.62288059712759</v>
+        <v>48.6228805971276</v>
       </c>
       <c r="P30" t="n">
         <v>39.02414834806978</v>
@@ -33287,10 +33287,10 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S30" t="n">
-        <v>3.795931559880458</v>
+        <v>3.795931559880459</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8237216301133747</v>
+        <v>0.8237216301133748</v>
       </c>
       <c r="U30" t="n">
         <v>0.01344485794526728</v>
@@ -33330,7 +33330,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.171330102340783</v>
       </c>
       <c r="H31" t="n">
         <v>1.523280364448053</v>
@@ -33339,22 +33339,22 @@
         <v>5.15236344130282</v>
       </c>
       <c r="J31" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K31" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L31" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891969</v>
       </c>
       <c r="M31" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511019</v>
       </c>
       <c r="N31" t="n">
         <v>26.21817829729456</v>
       </c>
       <c r="O31" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267723</v>
       </c>
       <c r="P31" t="n">
         <v>20.72159710492523</v>
@@ -33363,16 +33363,16 @@
         <v>14.3465597514632</v>
       </c>
       <c r="R31" t="n">
-        <v>7.703624419795566</v>
+        <v>7.703624419795568</v>
       </c>
       <c r="S31" t="n">
-        <v>2.985816419884371</v>
+        <v>2.985816419884372</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7320468009106179</v>
+        <v>0.732046800910618</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009345278309497263</v>
+        <v>0.009345278309497265</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3819510732859846</v>
+        <v>0.3819510732859847</v>
       </c>
       <c r="H32" t="n">
         <v>3.911656429290091</v>
@@ -33418,40 +33418,40 @@
         <v>14.72516875285794</v>
       </c>
       <c r="J32" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630637</v>
       </c>
       <c r="K32" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850211</v>
       </c>
       <c r="L32" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757807</v>
       </c>
       <c r="M32" t="n">
         <v>67.0672663971277</v>
       </c>
       <c r="N32" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410151</v>
       </c>
       <c r="O32" t="n">
         <v>64.35445889911399</v>
       </c>
       <c r="P32" t="n">
-        <v>54.92504177736623</v>
+        <v>54.92504177736624</v>
       </c>
       <c r="Q32" t="n">
         <v>41.2464189653119</v>
       </c>
       <c r="R32" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730076</v>
       </c>
       <c r="S32" t="n">
-        <v>8.703710082504383</v>
+        <v>8.703710082504385</v>
       </c>
       <c r="T32" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287877</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,28 +33491,28 @@
         <v>0.2043618407680626</v>
       </c>
       <c r="H33" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365237</v>
       </c>
       <c r="I33" t="n">
-        <v>7.036142324689875</v>
+        <v>7.036142324689876</v>
       </c>
       <c r="J33" t="n">
         <v>19.30771233326683</v>
       </c>
       <c r="K33" t="n">
-        <v>32.99995566472702</v>
+        <v>32.99995566472703</v>
       </c>
       <c r="L33" t="n">
-        <v>44.3725128386971</v>
+        <v>44.37251283869711</v>
       </c>
       <c r="M33" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653936</v>
       </c>
       <c r="N33" t="n">
-        <v>53.15110875309361</v>
+        <v>53.15110875309362</v>
       </c>
       <c r="O33" t="n">
-        <v>48.62288059712759</v>
+        <v>48.6228805971276</v>
       </c>
       <c r="P33" t="n">
         <v>39.02414834806978</v>
@@ -33524,10 +33524,10 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S33" t="n">
-        <v>3.795931559880458</v>
+        <v>3.795931559880459</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8237216301133747</v>
+        <v>0.8237216301133748</v>
       </c>
       <c r="U33" t="n">
         <v>0.01344485794526728</v>
@@ -33567,7 +33567,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.171330102340783</v>
       </c>
       <c r="H34" t="n">
         <v>1.523280364448053</v>
@@ -33576,22 +33576,22 @@
         <v>5.15236344130282</v>
       </c>
       <c r="J34" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K34" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L34" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891969</v>
       </c>
       <c r="M34" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511019</v>
       </c>
       <c r="N34" t="n">
         <v>26.21817829729456</v>
       </c>
       <c r="O34" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267723</v>
       </c>
       <c r="P34" t="n">
         <v>20.72159710492523</v>
@@ -33600,16 +33600,16 @@
         <v>14.3465597514632</v>
       </c>
       <c r="R34" t="n">
-        <v>7.703624419795566</v>
+        <v>7.703624419795568</v>
       </c>
       <c r="S34" t="n">
-        <v>2.985816419884371</v>
+        <v>2.985816419884372</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7320468009106179</v>
+        <v>0.732046800910618</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009345278309497263</v>
+        <v>0.009345278309497265</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3819510732859846</v>
+        <v>0.3819510732859847</v>
       </c>
       <c r="H35" t="n">
         <v>3.911656429290091</v>
@@ -33655,40 +33655,40 @@
         <v>14.72516875285794</v>
       </c>
       <c r="J35" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630637</v>
       </c>
       <c r="K35" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850211</v>
       </c>
       <c r="L35" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757807</v>
       </c>
       <c r="M35" t="n">
         <v>67.0672663971277</v>
       </c>
       <c r="N35" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410151</v>
       </c>
       <c r="O35" t="n">
         <v>64.35445889911399</v>
       </c>
       <c r="P35" t="n">
-        <v>54.92504177736623</v>
+        <v>54.92504177736624</v>
       </c>
       <c r="Q35" t="n">
         <v>41.2464189653119</v>
       </c>
       <c r="R35" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730076</v>
       </c>
       <c r="S35" t="n">
-        <v>8.703710082504383</v>
+        <v>8.703710082504385</v>
       </c>
       <c r="T35" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287877</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,28 +33728,28 @@
         <v>0.2043618407680626</v>
       </c>
       <c r="H36" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365237</v>
       </c>
       <c r="I36" t="n">
-        <v>7.036142324689875</v>
+        <v>7.036142324689876</v>
       </c>
       <c r="J36" t="n">
         <v>19.30771233326683</v>
       </c>
       <c r="K36" t="n">
-        <v>32.99995566472702</v>
+        <v>32.99995566472703</v>
       </c>
       <c r="L36" t="n">
-        <v>44.3725128386971</v>
+        <v>44.37251283869711</v>
       </c>
       <c r="M36" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653936</v>
       </c>
       <c r="N36" t="n">
-        <v>53.15110875309361</v>
+        <v>53.15110875309362</v>
       </c>
       <c r="O36" t="n">
-        <v>48.62288059712759</v>
+        <v>48.6228805971276</v>
       </c>
       <c r="P36" t="n">
         <v>39.02414834806978</v>
@@ -33761,10 +33761,10 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S36" t="n">
-        <v>3.795931559880458</v>
+        <v>3.795931559880459</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8237216301133747</v>
+        <v>0.8237216301133748</v>
       </c>
       <c r="U36" t="n">
         <v>0.01344485794526728</v>
@@ -33804,7 +33804,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.171330102340783</v>
       </c>
       <c r="H37" t="n">
         <v>1.523280364448053</v>
@@ -33813,22 +33813,22 @@
         <v>5.15236344130282</v>
       </c>
       <c r="J37" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K37" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L37" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891969</v>
       </c>
       <c r="M37" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511019</v>
       </c>
       <c r="N37" t="n">
         <v>26.21817829729456</v>
       </c>
       <c r="O37" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267723</v>
       </c>
       <c r="P37" t="n">
         <v>20.72159710492523</v>
@@ -33837,16 +33837,16 @@
         <v>14.3465597514632</v>
       </c>
       <c r="R37" t="n">
-        <v>7.703624419795566</v>
+        <v>7.703624419795568</v>
       </c>
       <c r="S37" t="n">
-        <v>2.985816419884371</v>
+        <v>2.985816419884372</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7320468009106179</v>
+        <v>0.732046800910618</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009345278309497263</v>
+        <v>0.009345278309497265</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3819510732859846</v>
+        <v>0.3819510732859847</v>
       </c>
       <c r="H38" t="n">
         <v>3.911656429290091</v>
@@ -33892,40 +33892,40 @@
         <v>14.72516875285794</v>
       </c>
       <c r="J38" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630637</v>
       </c>
       <c r="K38" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850211</v>
       </c>
       <c r="L38" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757807</v>
       </c>
       <c r="M38" t="n">
         <v>67.0672663971277</v>
       </c>
       <c r="N38" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410151</v>
       </c>
       <c r="O38" t="n">
         <v>64.35445889911399</v>
       </c>
       <c r="P38" t="n">
-        <v>54.92504177736623</v>
+        <v>54.92504177736624</v>
       </c>
       <c r="Q38" t="n">
         <v>41.2464189653119</v>
       </c>
       <c r="R38" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730076</v>
       </c>
       <c r="S38" t="n">
-        <v>8.703710082504383</v>
+        <v>8.703710082504385</v>
       </c>
       <c r="T38" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287877</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,28 +33965,28 @@
         <v>0.2043618407680626</v>
       </c>
       <c r="H39" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365237</v>
       </c>
       <c r="I39" t="n">
-        <v>7.036142324689875</v>
+        <v>7.036142324689876</v>
       </c>
       <c r="J39" t="n">
         <v>19.30771233326683</v>
       </c>
       <c r="K39" t="n">
-        <v>32.99995566472702</v>
+        <v>32.99995566472703</v>
       </c>
       <c r="L39" t="n">
-        <v>44.3725128386971</v>
+        <v>44.37251283869711</v>
       </c>
       <c r="M39" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653936</v>
       </c>
       <c r="N39" t="n">
-        <v>53.15110875309361</v>
+        <v>53.15110875309362</v>
       </c>
       <c r="O39" t="n">
-        <v>48.62288059712759</v>
+        <v>48.6228805971276</v>
       </c>
       <c r="P39" t="n">
         <v>39.02414834806978</v>
@@ -33998,10 +33998,10 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S39" t="n">
-        <v>3.795931559880458</v>
+        <v>3.795931559880459</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8237216301133747</v>
+        <v>0.8237216301133748</v>
       </c>
       <c r="U39" t="n">
         <v>0.01344485794526728</v>
@@ -34041,7 +34041,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.171330102340783</v>
       </c>
       <c r="H40" t="n">
         <v>1.523280364448053</v>
@@ -34050,22 +34050,22 @@
         <v>5.15236344130282</v>
       </c>
       <c r="J40" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K40" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L40" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891969</v>
       </c>
       <c r="M40" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511019</v>
       </c>
       <c r="N40" t="n">
         <v>26.21817829729456</v>
       </c>
       <c r="O40" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267723</v>
       </c>
       <c r="P40" t="n">
         <v>20.72159710492523</v>
@@ -34074,16 +34074,16 @@
         <v>14.3465597514632</v>
       </c>
       <c r="R40" t="n">
-        <v>7.703624419795566</v>
+        <v>7.703624419795568</v>
       </c>
       <c r="S40" t="n">
-        <v>2.985816419884371</v>
+        <v>2.985816419884372</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7320468009106179</v>
+        <v>0.732046800910618</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009345278309497263</v>
+        <v>0.009345278309497265</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3819510732859846</v>
+        <v>0.3819510732859847</v>
       </c>
       <c r="H41" t="n">
         <v>3.911656429290091</v>
@@ -34129,40 +34129,40 @@
         <v>14.72516875285794</v>
       </c>
       <c r="J41" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630637</v>
       </c>
       <c r="K41" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850211</v>
       </c>
       <c r="L41" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757807</v>
       </c>
       <c r="M41" t="n">
         <v>67.0672663971277</v>
       </c>
       <c r="N41" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410151</v>
       </c>
       <c r="O41" t="n">
         <v>64.35445889911399</v>
       </c>
       <c r="P41" t="n">
-        <v>54.92504177736623</v>
+        <v>54.92504177736624</v>
       </c>
       <c r="Q41" t="n">
         <v>41.2464189653119</v>
       </c>
       <c r="R41" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730076</v>
       </c>
       <c r="S41" t="n">
-        <v>8.703710082504383</v>
+        <v>8.703710082504385</v>
       </c>
       <c r="T41" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287877</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,28 +34202,28 @@
         <v>0.2043618407680626</v>
       </c>
       <c r="H42" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365237</v>
       </c>
       <c r="I42" t="n">
-        <v>7.036142324689875</v>
+        <v>7.036142324689876</v>
       </c>
       <c r="J42" t="n">
         <v>19.30771233326683</v>
       </c>
       <c r="K42" t="n">
-        <v>32.99995566472702</v>
+        <v>32.99995566472703</v>
       </c>
       <c r="L42" t="n">
-        <v>44.3725128386971</v>
+        <v>44.37251283869711</v>
       </c>
       <c r="M42" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653936</v>
       </c>
       <c r="N42" t="n">
-        <v>53.15110875309361</v>
+        <v>53.15110875309362</v>
       </c>
       <c r="O42" t="n">
-        <v>48.62288059712759</v>
+        <v>48.6228805971276</v>
       </c>
       <c r="P42" t="n">
         <v>39.02414834806978</v>
@@ -34235,10 +34235,10 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S42" t="n">
-        <v>3.795931559880458</v>
+        <v>3.795931559880459</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8237216301133747</v>
+        <v>0.8237216301133748</v>
       </c>
       <c r="U42" t="n">
         <v>0.01344485794526728</v>
@@ -34278,7 +34278,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.171330102340783</v>
       </c>
       <c r="H43" t="n">
         <v>1.523280364448053</v>
@@ -34287,22 +34287,22 @@
         <v>5.15236344130282</v>
       </c>
       <c r="J43" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K43" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L43" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891969</v>
       </c>
       <c r="M43" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511019</v>
       </c>
       <c r="N43" t="n">
         <v>26.21817829729456</v>
       </c>
       <c r="O43" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267723</v>
       </c>
       <c r="P43" t="n">
         <v>20.72159710492523</v>
@@ -34311,16 +34311,16 @@
         <v>14.3465597514632</v>
       </c>
       <c r="R43" t="n">
-        <v>7.703624419795566</v>
+        <v>7.703624419795568</v>
       </c>
       <c r="S43" t="n">
-        <v>2.985816419884371</v>
+        <v>2.985816419884372</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7320468009106179</v>
+        <v>0.732046800910618</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009345278309497263</v>
+        <v>0.009345278309497265</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3819510732859846</v>
+        <v>0.3819510732859847</v>
       </c>
       <c r="H44" t="n">
         <v>3.911656429290091</v>
@@ -34366,40 +34366,40 @@
         <v>14.72516875285794</v>
       </c>
       <c r="J44" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630637</v>
       </c>
       <c r="K44" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850211</v>
       </c>
       <c r="L44" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757807</v>
       </c>
       <c r="M44" t="n">
         <v>67.0672663971277</v>
       </c>
       <c r="N44" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410151</v>
       </c>
       <c r="O44" t="n">
         <v>64.35445889911399</v>
       </c>
       <c r="P44" t="n">
-        <v>54.92504177736623</v>
+        <v>54.92504177736624</v>
       </c>
       <c r="Q44" t="n">
         <v>41.2464189653119</v>
       </c>
       <c r="R44" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730076</v>
       </c>
       <c r="S44" t="n">
-        <v>8.703710082504383</v>
+        <v>8.703710082504385</v>
       </c>
       <c r="T44" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287877</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,28 +34439,28 @@
         <v>0.2043618407680626</v>
       </c>
       <c r="H45" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365237</v>
       </c>
       <c r="I45" t="n">
-        <v>7.036142324689875</v>
+        <v>7.036142324689876</v>
       </c>
       <c r="J45" t="n">
         <v>19.30771233326683</v>
       </c>
       <c r="K45" t="n">
-        <v>32.99995566472702</v>
+        <v>32.99995566472703</v>
       </c>
       <c r="L45" t="n">
-        <v>44.3725128386971</v>
+        <v>44.37251283869711</v>
       </c>
       <c r="M45" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653936</v>
       </c>
       <c r="N45" t="n">
-        <v>53.15110875309361</v>
+        <v>53.15110875309362</v>
       </c>
       <c r="O45" t="n">
-        <v>48.62288059712759</v>
+        <v>48.6228805971276</v>
       </c>
       <c r="P45" t="n">
         <v>39.02414834806978</v>
@@ -34472,10 +34472,10 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S45" t="n">
-        <v>3.795931559880458</v>
+        <v>3.795931559880459</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8237216301133747</v>
+        <v>0.8237216301133748</v>
       </c>
       <c r="U45" t="n">
         <v>0.01344485794526728</v>
@@ -34515,7 +34515,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.171330102340783</v>
       </c>
       <c r="H46" t="n">
         <v>1.523280364448053</v>
@@ -34524,22 +34524,22 @@
         <v>5.15236344130282</v>
       </c>
       <c r="J46" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K46" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L46" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891969</v>
       </c>
       <c r="M46" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511019</v>
       </c>
       <c r="N46" t="n">
         <v>26.21817829729456</v>
       </c>
       <c r="O46" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267723</v>
       </c>
       <c r="P46" t="n">
         <v>20.72159710492523</v>
@@ -34548,16 +34548,16 @@
         <v>14.3465597514632</v>
       </c>
       <c r="R46" t="n">
-        <v>7.703624419795566</v>
+        <v>7.703624419795568</v>
       </c>
       <c r="S46" t="n">
-        <v>2.985816419884371</v>
+        <v>2.985816419884372</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7320468009106179</v>
+        <v>0.732046800910618</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009345278309497263</v>
+        <v>0.009345278309497265</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,25 +34699,25 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>17.68646793392525</v>
       </c>
       <c r="L2" t="n">
-        <v>17.68646793392486</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>94.21910266041183</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>94.21910266041183</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="O2" t="n">
-        <v>94.21910266041183</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>90.41227022968816</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>94.21910266041183</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>90.41227022968854</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="P3" t="n">
-        <v>94.21910266041183</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.21910266041183</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>94.21910266041183</v>
+        <v>26.80774121136753</v>
       </c>
       <c r="M4" t="n">
-        <v>90.41227022968816</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="N4" t="n">
-        <v>94.21910266041183</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="O4" t="n">
-        <v>94.21910266041183</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,19 +34939,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>90.41227022968816</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="M5" t="n">
-        <v>94.21910266041183</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>94.21910266041183</v>
+        <v>90.41227022968854</v>
       </c>
       <c r="O5" t="n">
-        <v>94.21910266041183</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>94.21910266041183</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>29.54949595382336</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>90.41227022968854</v>
       </c>
       <c r="P6" t="n">
-        <v>94.21910266041183</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.21910266041183</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35097,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>94.21910266041183</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="M7" t="n">
-        <v>94.21910266041183</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="N7" t="n">
-        <v>90.41227022968815</v>
+        <v>90.41227022968854</v>
       </c>
       <c r="O7" t="n">
-        <v>94.21910266041183</v>
+        <v>94.2191026604123</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L8" t="n">
-        <v>319.8762849093202</v>
+        <v>319.8762849093206</v>
       </c>
       <c r="M8" t="n">
-        <v>318.7428366174216</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>319.8762849093202</v>
+        <v>319.8762849093206</v>
       </c>
       <c r="O8" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>76.17680424895495</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,16 +35255,16 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>189.5204713431547</v>
       </c>
       <c r="M9" t="n">
-        <v>319.8762849093202</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>189.5204713431535</v>
+        <v>319.8762849093206</v>
       </c>
       <c r="P9" t="n">
         <v>305.147393207775</v>
@@ -35425,7 +35425,7 @@
         <v>372.4398977605624</v>
       </c>
       <c r="P11" t="n">
-        <v>285.3865533491371</v>
+        <v>285.3865533491372</v>
       </c>
       <c r="Q11" t="n">
         <v>136.6325338001977</v>
@@ -35501,13 +35501,13 @@
         <v>569.5810543320048</v>
       </c>
       <c r="O12" t="n">
-        <v>197.3961560918977</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P12" t="n">
-        <v>344.1715415558447</v>
+        <v>282.2351429229594</v>
       </c>
       <c r="Q12" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.25367603694614</v>
+        <v>41.25367603694621</v>
       </c>
       <c r="K13" t="n">
-        <v>142.4463707851392</v>
+        <v>142.4463707851393</v>
       </c>
       <c r="L13" t="n">
-        <v>215.6927301058561</v>
+        <v>215.6927301058562</v>
       </c>
       <c r="M13" t="n">
-        <v>234.6394360413822</v>
+        <v>234.6394360413823</v>
       </c>
       <c r="N13" t="n">
         <v>234.4340093185147</v>
       </c>
       <c r="O13" t="n">
-        <v>212.2722639776239</v>
+        <v>212.272263977624</v>
       </c>
       <c r="P13" t="n">
-        <v>172.923430124668</v>
+        <v>172.9234301246681</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.79189582003713</v>
+        <v>64.7918958200372</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K14" t="n">
         <v>291.1516412069695</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>80.17048660913161</v>
+        <v>80.17048660913163</v>
       </c>
       <c r="K15" t="n">
         <v>264.8085946144125</v>
@@ -35735,10 +35735,10 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N15" t="n">
-        <v>569.5810543320048</v>
+        <v>242.0222767690056</v>
       </c>
       <c r="O15" t="n">
-        <v>117.2256694827656</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P15" t="n">
         <v>344.1715415558448</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.25367603694619</v>
+        <v>41.25367603694625</v>
       </c>
       <c r="K16" t="n">
         <v>142.4463707851393</v>
@@ -35820,10 +35820,10 @@
         <v>212.272263977624</v>
       </c>
       <c r="P16" t="n">
-        <v>172.923430124668</v>
+        <v>172.9234301246681</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.79189582003718</v>
+        <v>64.79189582003724</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K17" t="n">
         <v>291.1516412069695</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>80.17048660913161</v>
+        <v>80.17048660913163</v>
       </c>
       <c r="K18" t="n">
         <v>264.8085946144125</v>
@@ -35969,10 +35969,10 @@
         <v>413.8895281620462</v>
       </c>
       <c r="M18" t="n">
-        <v>541.7133098798994</v>
+        <v>214.1545323169</v>
       </c>
       <c r="N18" t="n">
-        <v>242.0222767690056</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O18" t="n">
         <v>444.7844470457649</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>53.84906678371744</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L19" t="n">
         <v>127.0954261044343</v>
@@ -36139,7 +36139,7 @@
         <v>285.3865533491372</v>
       </c>
       <c r="Q20" t="n">
-        <v>136.6325338001978</v>
+        <v>136.6325338001977</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36209,16 +36209,16 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N21" t="n">
-        <v>427.474169089988</v>
+        <v>242.0222767690058</v>
       </c>
       <c r="O21" t="n">
-        <v>444.7844470457649</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P21" t="n">
         <v>344.1715415558448</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>53.84906678371744</v>
+        <v>53.84906678371743</v>
       </c>
       <c r="L22" t="n">
         <v>127.0954261044343</v>
@@ -36291,7 +36291,7 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O22" t="n">
-        <v>123.6749599762022</v>
+        <v>123.6749599762021</v>
       </c>
       <c r="P22" t="n">
         <v>84.32612612324624</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K23" t="n">
         <v>291.1516412069695</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>80.17048660913161</v>
+        <v>80.17048660913163</v>
       </c>
       <c r="K24" t="n">
         <v>264.8085946144125</v>
@@ -36446,7 +36446,7 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N24" t="n">
-        <v>427.474169089988</v>
+        <v>242.0222767690056</v>
       </c>
       <c r="O24" t="n">
         <v>444.7844470457649</v>
@@ -36455,7 +36455,7 @@
         <v>344.1715415558448</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>53.84906678371744</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L25" t="n">
         <v>127.0954261044343</v>
@@ -36604,19 +36604,19 @@
         <v>570.8619272871388</v>
       </c>
       <c r="N26" t="n">
-        <v>556.8887542939386</v>
+        <v>556.8887542939385</v>
       </c>
       <c r="O26" t="n">
         <v>479.0232796070503</v>
       </c>
       <c r="P26" t="n">
-        <v>391.9699351956251</v>
+        <v>391.969935195625</v>
       </c>
       <c r="Q26" t="n">
         <v>243.2159156466857</v>
       </c>
       <c r="R26" t="n">
-        <v>40.84421231468346</v>
+        <v>40.84421231468344</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>80.17048660913163</v>
       </c>
       <c r="K27" t="n">
         <v>264.8085946144125</v>
@@ -36680,10 +36680,10 @@
         <v>413.8895281620462</v>
       </c>
       <c r="M27" t="n">
-        <v>479.7769112470136</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N27" t="n">
-        <v>569.5810543320048</v>
+        <v>427.4741690899875</v>
       </c>
       <c r="O27" t="n">
         <v>444.7844470457649</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.23975388201225</v>
+        <v>37.28748721782028</v>
       </c>
       <c r="K28" t="n">
         <v>160.4324486302053</v>
@@ -36762,16 +36762,16 @@
         <v>252.6255138864483</v>
       </c>
       <c r="N28" t="n">
-        <v>230.4678204993881</v>
+        <v>252.4200871635808</v>
       </c>
       <c r="O28" t="n">
-        <v>230.2583418226901</v>
+        <v>230.25834182269</v>
       </c>
       <c r="P28" t="n">
         <v>190.9095079697341</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.77797366510325</v>
+        <v>82.77797366510322</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>570.8619272871388</v>
       </c>
       <c r="N29" t="n">
-        <v>556.8887542939386</v>
+        <v>556.8887542939385</v>
       </c>
       <c r="O29" t="n">
         <v>479.0232796070503</v>
@@ -36853,7 +36853,7 @@
         <v>243.2159156466856</v>
       </c>
       <c r="R29" t="n">
-        <v>40.84421231468343</v>
+        <v>40.84421231468344</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.8085946144125</v>
@@ -36917,10 +36917,10 @@
         <v>413.8895281620462</v>
       </c>
       <c r="M30" t="n">
-        <v>541.7133098798994</v>
+        <v>294.3250189260312</v>
       </c>
       <c r="N30" t="n">
-        <v>242.0222767690051</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O30" t="n">
         <v>444.7844470457649</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K32" t="n">
         <v>291.1516412069695</v>
@@ -37151,7 +37151,7 @@
         <v>264.8085946144125</v>
       </c>
       <c r="L33" t="n">
-        <v>413.8895281620462</v>
+        <v>351.9531295291608</v>
       </c>
       <c r="M33" t="n">
         <v>541.7133098798994</v>
@@ -37163,10 +37163,10 @@
         <v>444.7844470457649</v>
       </c>
       <c r="P33" t="n">
-        <v>96.78325060197751</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q33" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>53.84906678371744</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L34" t="n">
         <v>127.0954261044343</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K35" t="n">
         <v>291.1516412069695</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>80.17048660913161</v>
+        <v>80.17048660913163</v>
       </c>
       <c r="K36" t="n">
         <v>264.8085946144125</v>
       </c>
       <c r="L36" t="n">
-        <v>413.8895281620462</v>
+        <v>86.33075059904689</v>
       </c>
       <c r="M36" t="n">
-        <v>214.1545323169</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N36" t="n">
         <v>569.5810543320048</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>53.84906678371744</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L37" t="n">
         <v>127.0954261044343</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K38" t="n">
         <v>291.1516412069695</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>80.17048660913161</v>
+        <v>80.17048660913163</v>
       </c>
       <c r="K39" t="n">
-        <v>264.8085946144125</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>413.8895281620462</v>
@@ -37631,7 +37631,7 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N39" t="n">
-        <v>242.0222767690056</v>
+        <v>506.8308713834182</v>
       </c>
       <c r="O39" t="n">
         <v>444.7844470457649</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>53.84906678371744</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L40" t="n">
         <v>127.0954261044343</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K41" t="n">
         <v>291.1516412069695</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>80.17048660913161</v>
+        <v>80.17048660913163</v>
       </c>
       <c r="K42" t="n">
         <v>264.8085946144125</v>
@@ -37868,7 +37868,7 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N42" t="n">
-        <v>427.474169089988</v>
+        <v>242.0222767690051</v>
       </c>
       <c r="O42" t="n">
         <v>444.7844470457649</v>
@@ -37877,7 +37877,7 @@
         <v>344.1715415558448</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>53.84906678371744</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L43" t="n">
         <v>127.0954261044343</v>
@@ -38011,16 +38011,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-1.141174696826827e-12</v>
       </c>
       <c r="J44" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K44" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L44" t="n">
-        <v>411.6741107500492</v>
+        <v>411.674110750049</v>
       </c>
       <c r="M44" t="n">
         <v>464.2785454406509</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>80.17048660913161</v>
+        <v>80.17048660913163</v>
       </c>
       <c r="K45" t="n">
         <v>264.8085946144125</v>
@@ -38105,10 +38105,10 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N45" t="n">
-        <v>242.0222767690056</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O45" t="n">
-        <v>444.7844470457649</v>
+        <v>117.2256694827643</v>
       </c>
       <c r="P45" t="n">
         <v>344.1715415558448</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>53.84906678371744</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L46" t="n">
         <v>127.0954261044343</v>
